--- a/data/raw/Drugs.xlsx
+++ b/data/raw/Drugs.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albacortes\Desktop\UPM\TFG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albacortes\Desktop\UPM\TFG\TFG\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07CB898-5E17-4038-8FE7-3E1DAFF660A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2795CBBB-8E27-4D8C-905B-B694EEDB5AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{20E1C3B8-4C1D-44BF-A8FA-3BA5F597D8F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{20E1C3B8-4C1D-44BF-A8FA-3BA5F597D8F8}"/>
   </bookViews>
   <sheets>
     <sheet name="drug_keyword" sheetId="1" r:id="rId1"/>
     <sheet name="drug" sheetId="2" r:id="rId2"/>
+    <sheet name="slang" sheetId="3" r:id="rId3"/>
+    <sheet name="metamap" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="714">
   <si>
     <t>id</t>
   </si>
@@ -196,6 +198,1989 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>bad mood</t>
+  </si>
+  <si>
+    <t>bad trip</t>
+  </si>
+  <si>
+    <t>baked</t>
+  </si>
+  <si>
+    <t>bipolar</t>
+  </si>
+  <si>
+    <t>blasted</t>
+  </si>
+  <si>
+    <t>blazed</t>
+  </si>
+  <si>
+    <t>blotter paper</t>
+  </si>
+  <si>
+    <t>bong</t>
+  </si>
+  <si>
+    <t>chemical</t>
+  </si>
+  <si>
+    <t>chest pain</t>
+  </si>
+  <si>
+    <t>chew</t>
+  </si>
+  <si>
+    <t>consume</t>
+  </si>
+  <si>
+    <t>crackhead</t>
+  </si>
+  <si>
+    <t>cuddle puddle</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>depression</t>
+  </si>
+  <si>
+    <t>double drop</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>drug</t>
+  </si>
+  <si>
+    <t>e-puddle</t>
+  </si>
+  <si>
+    <t>e-tard</t>
+  </si>
+  <si>
+    <t>euphoria</t>
+  </si>
+  <si>
+    <t>evasion</t>
+  </si>
+  <si>
+    <t>feel relaxed</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>flip</t>
+  </si>
+  <si>
+    <t>fracture</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>grinder</t>
+  </si>
+  <si>
+    <t>hallucination</t>
+  </si>
+  <si>
+    <t>headache</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>hookah</t>
+  </si>
+  <si>
+    <t>ingest</t>
+  </si>
+  <si>
+    <t>inhale</t>
+  </si>
+  <si>
+    <t>inject</t>
+  </si>
+  <si>
+    <t>injur</t>
+  </si>
+  <si>
+    <t>insomnia</t>
+  </si>
+  <si>
+    <t>intoxicat</t>
+  </si>
+  <si>
+    <t>introspection</t>
+  </si>
+  <si>
+    <t>joint</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>lit</t>
+  </si>
+  <si>
+    <t>loaded</t>
+  </si>
+  <si>
+    <t>loss of consciousness</t>
+  </si>
+  <si>
+    <t>memory impairment</t>
+  </si>
+  <si>
+    <t>munchies</t>
+  </si>
+  <si>
+    <t>nausea</t>
+  </si>
+  <si>
+    <t>needle</t>
+  </si>
+  <si>
+    <t>nod out</t>
+  </si>
+  <si>
+    <t>off my head</t>
+  </si>
+  <si>
+    <t>one hitter</t>
+  </si>
+  <si>
+    <t>overdose</t>
+  </si>
+  <si>
+    <t>paranoia</t>
+  </si>
+  <si>
+    <t>patches</t>
+  </si>
+  <si>
+    <t>pill</t>
+  </si>
+  <si>
+    <t>pipe</t>
+  </si>
+  <si>
+    <t>popper</t>
+  </si>
+  <si>
+    <t>raver</t>
+  </si>
+  <si>
+    <t>ripped</t>
+  </si>
+  <si>
+    <t>roll</t>
+  </si>
+  <si>
+    <t>running</t>
+  </si>
+  <si>
+    <t>sensuality</t>
+  </si>
+  <si>
+    <t>shitfaced</t>
+  </si>
+  <si>
+    <t>shoot up</t>
+  </si>
+  <si>
+    <t>smoke</t>
+  </si>
+  <si>
+    <t>snort</t>
+  </si>
+  <si>
+    <t>spirituality</t>
+  </si>
+  <si>
+    <t>stomach pain</t>
+  </si>
+  <si>
+    <t>stoned</t>
+  </si>
+  <si>
+    <t>substance</t>
+  </si>
+  <si>
+    <t>tabs</t>
+  </si>
+  <si>
+    <t>tachycardia</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>thizzing</t>
+  </si>
+  <si>
+    <t>trip out</t>
+  </si>
+  <si>
+    <t>tripping</t>
+  </si>
+  <si>
+    <t>vape</t>
+  </si>
+  <si>
+    <t>vaporize</t>
+  </si>
+  <si>
+    <t>vomit</t>
+  </si>
+  <si>
+    <t>wasted</t>
+  </si>
+  <si>
+    <t>whacked</t>
+  </si>
+  <si>
+    <t>whacked out</t>
+  </si>
+  <si>
+    <t>wrecked</t>
+  </si>
+  <si>
+    <t>zonked</t>
+  </si>
+  <si>
+    <t>zooted</t>
+  </si>
+  <si>
+    <t>annotation</t>
+  </si>
+  <si>
+    <t>concept</t>
+  </si>
+  <si>
+    <t>negativo</t>
+  </si>
+  <si>
+    <t>contexto</t>
+  </si>
+  <si>
+    <t>positivo</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>abbreviation</t>
+  </si>
+  <si>
+    <t>Sexual activity NOS</t>
+  </si>
+  <si>
+    <t>Behavior, NOS</t>
+  </si>
+  <si>
+    <t>Ritual</t>
+  </si>
+  <si>
+    <t>Sexuality</t>
+  </si>
+  <si>
+    <t>Cruelty towards animals</t>
+  </si>
+  <si>
+    <t>Gambling</t>
+  </si>
+  <si>
+    <t>Alcohol consumption</t>
+  </si>
+  <si>
+    <t>Crying</t>
+  </si>
+  <si>
+    <t>Singing</t>
+  </si>
+  <si>
+    <t>Alcoholic beverage heavy drinker</t>
+  </si>
+  <si>
+    <t>Screaming</t>
+  </si>
+  <si>
+    <t>Tobacco smoking behavior</t>
+  </si>
+  <si>
+    <t>Theft</t>
+  </si>
+  <si>
+    <t>Telling untruths</t>
+  </si>
+  <si>
+    <t>Conflict, NOS</t>
+  </si>
+  <si>
+    <t>Eroticism</t>
+  </si>
+  <si>
+    <t>Seduction</t>
+  </si>
+  <si>
+    <t>Vaping</t>
+  </si>
+  <si>
+    <t>Compliance behavior</t>
+  </si>
+  <si>
+    <t>Licking</t>
+  </si>
+  <si>
+    <t>Aggressive behavior</t>
+  </si>
+  <si>
+    <t>Confident</t>
+  </si>
+  <si>
+    <t>Coping behavior</t>
+  </si>
+  <si>
+    <t>Habits</t>
+  </si>
+  <si>
+    <t>Wandering</t>
+  </si>
+  <si>
+    <t>Adjustment</t>
+  </si>
+  <si>
+    <t>Female homosexuality</t>
+  </si>
+  <si>
+    <t>Dealing with drugs</t>
+  </si>
+  <si>
+    <t>Howling</t>
+  </si>
+  <si>
+    <t>Submissive behavior</t>
+  </si>
+  <si>
+    <t>Destructive behavior</t>
+  </si>
+  <si>
+    <t>Defiance</t>
+  </si>
+  <si>
+    <t>Squealing</t>
+  </si>
+  <si>
+    <t>Masturbation</t>
+  </si>
+  <si>
+    <t>Mooing</t>
+  </si>
+  <si>
+    <t>Thief</t>
+  </si>
+  <si>
+    <t>Murderer</t>
+  </si>
+  <si>
+    <t>Purring</t>
+  </si>
+  <si>
+    <t>Current drinker</t>
+  </si>
+  <si>
+    <t>Hoarding</t>
+  </si>
+  <si>
+    <t>Thinking, function</t>
+  </si>
+  <si>
+    <t>Love</t>
+  </si>
+  <si>
+    <t>Feelings</t>
+  </si>
+  <si>
+    <t>Happiness</t>
+  </si>
+  <si>
+    <t>Interested</t>
+  </si>
+  <si>
+    <t>Dreams</t>
+  </si>
+  <si>
+    <t>Fear</t>
+  </si>
+  <si>
+    <t>Learning</t>
+  </si>
+  <si>
+    <t>Anger</t>
+  </si>
+  <si>
+    <t>Writing (function)</t>
+  </si>
+  <si>
+    <t>Understanding, NOS</t>
+  </si>
+  <si>
+    <t>Hate</t>
+  </si>
+  <si>
+    <t>Attention</t>
+  </si>
+  <si>
+    <t>Memory</t>
+  </si>
+  <si>
+    <t>Touch perception</t>
+  </si>
+  <si>
+    <t>Drive</t>
+  </si>
+  <si>
+    <t>Awareness</t>
+  </si>
+  <si>
+    <t>Excitement</t>
+  </si>
+  <si>
+    <t>Abstract thinking</t>
+  </si>
+  <si>
+    <t>Sad mood</t>
+  </si>
+  <si>
+    <t>Cognitive function: planning</t>
+  </si>
+  <si>
+    <t>Self-confidence</t>
+  </si>
+  <si>
+    <t>Affect, NOS</t>
+  </si>
+  <si>
+    <t>Empowered</t>
+  </si>
+  <si>
+    <t>Euphoria</t>
+  </si>
+  <si>
+    <t>Emotions</t>
+  </si>
+  <si>
+    <t>Mood, NOS</t>
+  </si>
+  <si>
+    <t>Consciousness, NOS</t>
+  </si>
+  <si>
+    <t>Guilt</t>
+  </si>
+  <si>
+    <t>Grief reaction</t>
+  </si>
+  <si>
+    <t>Imagination</t>
+  </si>
+  <si>
+    <t>Enthusiastic</t>
+  </si>
+  <si>
+    <t>Intention</t>
+  </si>
+  <si>
+    <t>Feeling calm</t>
+  </si>
+  <si>
+    <t>Marijuana abuse</t>
+  </si>
+  <si>
+    <t>Nightmare disorder</t>
+  </si>
+  <si>
+    <t>Acute alcohol intoxication</t>
+  </si>
+  <si>
+    <t>Anxiety</t>
+  </si>
+  <si>
+    <t>Anxiety disorder</t>
+  </si>
+  <si>
+    <t>Alcohol intoxication</t>
+  </si>
+  <si>
+    <t>Confusion</t>
+  </si>
+  <si>
+    <t>Hallucinations</t>
+  </si>
+  <si>
+    <t>Addiction, NOS</t>
+  </si>
+  <si>
+    <t>Depressed mood</t>
+  </si>
+  <si>
+    <t>Conversion disorder</t>
+  </si>
+  <si>
+    <t>Hysteria</t>
+  </si>
+  <si>
+    <t>Psychoactive substance-induced organic hallucinosis</t>
+  </si>
+  <si>
+    <t>Stuttering</t>
+  </si>
+  <si>
+    <t>Drug dependence, NOS</t>
+  </si>
+  <si>
+    <t>Binge eating disorder</t>
+  </si>
+  <si>
+    <t>Amnesia</t>
+  </si>
+  <si>
+    <t>Depression NOS</t>
+  </si>
+  <si>
+    <t>Depressive disorder</t>
+  </si>
+  <si>
+    <t>Hallucinogen persisting perception disorder</t>
+  </si>
+  <si>
+    <t>Illusions</t>
+  </si>
+  <si>
+    <t>Nonorganic psychosis NOS</t>
+  </si>
+  <si>
+    <t>Psychotic disorder</t>
+  </si>
+  <si>
+    <t>Incest (event)</t>
+  </si>
+  <si>
+    <t>Suffering</t>
+  </si>
+  <si>
+    <t>Mental disorders NOS</t>
+  </si>
+  <si>
+    <t>Synesthesia</t>
+  </si>
+  <si>
+    <t>Drug abuse</t>
+  </si>
+  <si>
+    <t>Hyperactive behavior</t>
+  </si>
+  <si>
+    <t>Manic</t>
+  </si>
+  <si>
+    <t>Post-traumatic stress disorder</t>
+  </si>
+  <si>
+    <t>Autistic disorder, NOS</t>
+  </si>
+  <si>
+    <t>Sadism</t>
+  </si>
+  <si>
+    <t>Social fear</t>
+  </si>
+  <si>
+    <t>Alcohol dependence</t>
+  </si>
+  <si>
+    <t>Ritual compulsion</t>
+  </si>
+  <si>
+    <t>Tension</t>
+  </si>
+  <si>
+    <t>Apathy</t>
+  </si>
+  <si>
+    <t>Sexual assault</t>
+  </si>
+  <si>
+    <t>Fetishism</t>
+  </si>
+  <si>
+    <t>Bullying</t>
+  </si>
+  <si>
+    <t>Dependence</t>
+  </si>
+  <si>
+    <t>Spraying</t>
+  </si>
+  <si>
+    <t>Delirium</t>
+  </si>
+  <si>
+    <t>Mental blocking</t>
+  </si>
+  <si>
+    <t>Somnolence</t>
+  </si>
+  <si>
+    <t>Vision</t>
+  </si>
+  <si>
+    <t>Death</t>
+  </si>
+  <si>
+    <t>Speech</t>
+  </si>
+  <si>
+    <t>Term birth, NOS</t>
+  </si>
+  <si>
+    <t>Intercourse</t>
+  </si>
+  <si>
+    <t>Eating</t>
+  </si>
+  <si>
+    <t>Moving</t>
+  </si>
+  <si>
+    <t>Sleep</t>
+  </si>
+  <si>
+    <t>Expiration</t>
+  </si>
+  <si>
+    <t>Defecation</t>
+  </si>
+  <si>
+    <t>Movement</t>
+  </si>
+  <si>
+    <t>Dying process</t>
+  </si>
+  <si>
+    <t>Inhalation</t>
+  </si>
+  <si>
+    <t>Sense of smell</t>
+  </si>
+  <si>
+    <t>Childbirth</t>
+  </si>
+  <si>
+    <t>Drinking</t>
+  </si>
+  <si>
+    <t>Exertion</t>
+  </si>
+  <si>
+    <t>Nutrition, function</t>
+  </si>
+  <si>
+    <t>Catabolism</t>
+  </si>
+  <si>
+    <t>Wound healing, NOS</t>
+  </si>
+  <si>
+    <t>Equilibrium</t>
+  </si>
+  <si>
+    <t>Urination</t>
+  </si>
+  <si>
+    <t>Chewing</t>
+  </si>
+  <si>
+    <t>Aging</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Orgasm</t>
+  </si>
+  <si>
+    <t>Birth</t>
+  </si>
+  <si>
+    <t>Deglutition</t>
+  </si>
+  <si>
+    <t>Pregnancy</t>
+  </si>
+  <si>
+    <t>Fertility</t>
+  </si>
+  <si>
+    <t>Tickling sensation quality</t>
+  </si>
+  <si>
+    <t>Metabolism</t>
+  </si>
+  <si>
+    <t>Obstruction</t>
+  </si>
+  <si>
+    <t>Shock</t>
+  </si>
+  <si>
+    <t>Hypersensitivity</t>
+  </si>
+  <si>
+    <t>Adverse effects NOS</t>
+  </si>
+  <si>
+    <t>Multiple organ failure</t>
+  </si>
+  <si>
+    <t>Hemorrhage</t>
+  </si>
+  <si>
+    <t>Choking</t>
+  </si>
+  <si>
+    <t>Eruption</t>
+  </si>
+  <si>
+    <t>Allergic reaction</t>
+  </si>
+  <si>
+    <t>Endotracheal aspiration</t>
+  </si>
+  <si>
+    <t>Pulmonary aspiration</t>
+  </si>
+  <si>
+    <t>Cicatrix</t>
+  </si>
+  <si>
+    <t>Aneurysm</t>
+  </si>
+  <si>
+    <t>Asphyxia</t>
+  </si>
+  <si>
+    <t>Diastasis</t>
+  </si>
+  <si>
+    <t>Course of illness</t>
+  </si>
+  <si>
+    <t>Infection</t>
+  </si>
+  <si>
+    <t>Whitlow</t>
+  </si>
+  <si>
+    <t>Adverse reactions</t>
+  </si>
+  <si>
+    <t>Functional disorder</t>
+  </si>
+  <si>
+    <t>Degeneration, NOS</t>
+  </si>
+  <si>
+    <t>Feminization</t>
+  </si>
+  <si>
+    <t>Edema</t>
+  </si>
+  <si>
+    <t>Drug effect</t>
+  </si>
+  <si>
+    <t>Infiltration</t>
+  </si>
+  <si>
+    <t>Infertility</t>
+  </si>
+  <si>
+    <t>Respiratory depression</t>
+  </si>
+  <si>
+    <t>Bleeding from anus</t>
+  </si>
+  <si>
+    <t>Closed comedone (disorder)</t>
+  </si>
+  <si>
+    <t>Hypoventilation</t>
+  </si>
+  <si>
+    <t>Liver damage</t>
+  </si>
+  <si>
+    <t>Adverse reaction to drug</t>
+  </si>
+  <si>
+    <t>Transformation, function</t>
+  </si>
+  <si>
+    <t>Menopause</t>
+  </si>
+  <si>
+    <t>Slow wave sleep</t>
+  </si>
+  <si>
+    <t>Heart beating</t>
+  </si>
+  <si>
+    <t>Hopping</t>
+  </si>
+  <si>
+    <t>Puberty</t>
+  </si>
+  <si>
+    <t>Compensation</t>
+  </si>
+  <si>
+    <t>Brain activity</t>
+  </si>
+  <si>
+    <t>Migration, NOS</t>
+  </si>
+  <si>
+    <t>Abduction, function</t>
+  </si>
+  <si>
+    <t>Blood flow</t>
+  </si>
+  <si>
+    <t>Sexual excitation, function</t>
+  </si>
+  <si>
+    <t>Straining (finding)</t>
+  </si>
+  <si>
+    <t>Immunity</t>
+  </si>
+  <si>
+    <t>Light touch</t>
+  </si>
+  <si>
+    <t>Coordination, NOS</t>
+  </si>
+  <si>
+    <t>Hearing</t>
+  </si>
+  <si>
+    <t>Waking</t>
+  </si>
+  <si>
+    <t>Tolerance, NOS</t>
+  </si>
+  <si>
+    <t>Sucking</t>
+  </si>
+  <si>
+    <t>Cold - sensation</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>Spitting</t>
+  </si>
+  <si>
+    <t>Thirst</t>
+  </si>
+  <si>
+    <t>Respiration</t>
+  </si>
+  <si>
+    <t>Pulse, NOS</t>
+  </si>
+  <si>
+    <t>Killing</t>
+  </si>
+  <si>
+    <t>Fighting</t>
+  </si>
+  <si>
+    <t>Heterosexuality</t>
+  </si>
+  <si>
+    <t>Laughter</t>
+  </si>
+  <si>
+    <t>Smiling</t>
+  </si>
+  <si>
+    <t>Homosexuality</t>
+  </si>
+  <si>
+    <t>Kissing</t>
+  </si>
+  <si>
+    <t>Life style, NOS</t>
+  </si>
+  <si>
+    <t>Argumentive behavior</t>
+  </si>
+  <si>
+    <t>Forcible intercourse</t>
+  </si>
+  <si>
+    <t>Murder</t>
+  </si>
+  <si>
+    <t>Praising</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>Riot</t>
+  </si>
+  <si>
+    <t>Ability to interact with others</t>
+  </si>
+  <si>
+    <t>Gratification</t>
+  </si>
+  <si>
+    <t>Terrorism</t>
+  </si>
+  <si>
+    <t>Parenting behavior</t>
+  </si>
+  <si>
+    <t>Social behavior</t>
+  </si>
+  <si>
+    <t>Copulation</t>
+  </si>
+  <si>
+    <t>Divorce</t>
+  </si>
+  <si>
+    <t>Fraud</t>
+  </si>
+  <si>
+    <t>Parenthood</t>
+  </si>
+  <si>
+    <t>Fondling</t>
+  </si>
+  <si>
+    <t>Marital separation</t>
+  </si>
+  <si>
+    <t>Herd</t>
+  </si>
+  <si>
+    <t>Manslaughter</t>
+  </si>
+  <si>
+    <t>Sex work</t>
+  </si>
+  <si>
+    <t>Adoption</t>
+  </si>
+  <si>
+    <t>Empowerment</t>
+  </si>
+  <si>
+    <t>Predation</t>
+  </si>
+  <si>
+    <t>Sexual harassment</t>
+  </si>
+  <si>
+    <t>Promiscuous behavior</t>
+  </si>
+  <si>
+    <t>Mediate</t>
+  </si>
+  <si>
+    <t>Malaise</t>
+  </si>
+  <si>
+    <t>Chills</t>
+  </si>
+  <si>
+    <t>Nightmares</t>
+  </si>
+  <si>
+    <t>Convulsions</t>
+  </si>
+  <si>
+    <t>Catch</t>
+  </si>
+  <si>
+    <t>Illness (finding)</t>
+  </si>
+  <si>
+    <t>Fatigue</t>
+  </si>
+  <si>
+    <t>Tremor</t>
+  </si>
+  <si>
+    <t>Weakness</t>
+  </si>
+  <si>
+    <t>Pain</t>
+  </si>
+  <si>
+    <t>Nausea</t>
+  </si>
+  <si>
+    <t>Fever</t>
+  </si>
+  <si>
+    <t>Flatulence</t>
+  </si>
+  <si>
+    <t>Hunger</t>
+  </si>
+  <si>
+    <t>Burning sensation</t>
+  </si>
+  <si>
+    <t>Clinical finding</t>
+  </si>
+  <si>
+    <t>Clumsiness</t>
+  </si>
+  <si>
+    <t>Hangover</t>
+  </si>
+  <si>
+    <t>Hangover from alcohol</t>
+  </si>
+  <si>
+    <t>Exanthema</t>
+  </si>
+  <si>
+    <t>Spots on skin</t>
+  </si>
+  <si>
+    <t>Coughing</t>
+  </si>
+  <si>
+    <t>Sighing respiration</t>
+  </si>
+  <si>
+    <t>Clubbing</t>
+  </si>
+  <si>
+    <t>Exhaustion</t>
+  </si>
+  <si>
+    <t>Nervousness</t>
+  </si>
+  <si>
+    <t>Sneezing</t>
+  </si>
+  <si>
+    <t>Feeling despair</t>
+  </si>
+  <si>
+    <t>Fumbling</t>
+  </si>
+  <si>
+    <t>Depressed - symptom</t>
+  </si>
+  <si>
+    <t>Spasm</t>
+  </si>
+  <si>
+    <t>Muscle cramp</t>
+  </si>
+  <si>
+    <t>Syncope</t>
+  </si>
+  <si>
+    <t>Symptom</t>
+  </si>
+  <si>
+    <t>Blackout</t>
+  </si>
+  <si>
+    <t>Vomiting</t>
+  </si>
+  <si>
+    <t>Dizziness</t>
+  </si>
+  <si>
+    <t>Sleeplessness</t>
+  </si>
+  <si>
+    <t>Loss of memory</t>
+  </si>
+  <si>
+    <t>Headache</t>
+  </si>
+  <si>
+    <t>Sore to touch</t>
+  </si>
+  <si>
+    <t>bhvr</t>
+  </si>
+  <si>
+    <t>inbe</t>
+  </si>
+  <si>
+    <t>menp</t>
+  </si>
+  <si>
+    <t>mobd</t>
+  </si>
+  <si>
+    <t>orgf</t>
+  </si>
+  <si>
+    <t>patf</t>
+  </si>
+  <si>
+    <t>phsf</t>
+  </si>
+  <si>
+    <t>socb</t>
+  </si>
+  <si>
+    <t>sosy</t>
+  </si>
+  <si>
+    <t>matched_words</t>
+  </si>
+  <si>
+    <t>['sex']</t>
+  </si>
+  <si>
+    <t>['behaviour']</t>
+  </si>
+  <si>
+    <t>['bet']</t>
+  </si>
+  <si>
+    <t>['drinking']</t>
+  </si>
+  <si>
+    <t>['cry']</t>
+  </si>
+  <si>
+    <t>['singing']</t>
+  </si>
+  <si>
+    <t>['drunk']</t>
+  </si>
+  <si>
+    <t>['screaming']</t>
+  </si>
+  <si>
+    <t>['smoking']</t>
+  </si>
+  <si>
+    <t>['steals']</t>
+  </si>
+  <si>
+    <t>['lying']</t>
+  </si>
+  <si>
+    <t>["conflict"]</t>
+  </si>
+  <si>
+    <t>['erotism']</t>
+  </si>
+  <si>
+    <t>['seduction']</t>
+  </si>
+  <si>
+    <t>['vape']</t>
+  </si>
+  <si>
+    <t>['compliance']</t>
+  </si>
+  <si>
+    <t>['licking']</t>
+  </si>
+  <si>
+    <t>['aggressive']</t>
+  </si>
+  <si>
+    <t>['confident']</t>
+  </si>
+  <si>
+    <t>['cope']</t>
+  </si>
+  <si>
+    <t>['habit']</t>
+  </si>
+  <si>
+    <t>['wandered']</t>
+  </si>
+  <si>
+    <t>['adjustments']</t>
+  </si>
+  <si>
+    <t>['thought']</t>
+  </si>
+  <si>
+    <t>["love"]</t>
+  </si>
+  <si>
+    <t>["feels"]</t>
+  </si>
+  <si>
+    <t>['happy']</t>
+  </si>
+  <si>
+    <t>['interesting']</t>
+  </si>
+  <si>
+    <t>['dreams']</t>
+  </si>
+  <si>
+    <t>['frightened']</t>
+  </si>
+  <si>
+    <t>['learn']</t>
+  </si>
+  <si>
+    <t>['mad']</t>
+  </si>
+  <si>
+    <t>["write"]</t>
+  </si>
+  <si>
+    <t>['understand']</t>
+  </si>
+  <si>
+    <t>['hate']</t>
+  </si>
+  <si>
+    <t>['attention']</t>
+  </si>
+  <si>
+    <t>["memory"]</t>
+  </si>
+  <si>
+    <t>['touch']</t>
+  </si>
+  <si>
+    <t>['drives']</t>
+  </si>
+  <si>
+    <t>['aware']</t>
+  </si>
+  <si>
+    <t>['excitement']</t>
+  </si>
+  <si>
+    <t>['ideas']</t>
+  </si>
+  <si>
+    <t>['sad']</t>
+  </si>
+  <si>
+    <t>['planning']</t>
+  </si>
+  <si>
+    <t>['confidence']</t>
+  </si>
+  <si>
+    <t>['affect']</t>
+  </si>
+  <si>
+    <t>["enable"]</t>
+  </si>
+  <si>
+    <t>['euphoric']</t>
+  </si>
+  <si>
+    <t>['emotions']</t>
+  </si>
+  <si>
+    <t>['weed']</t>
+  </si>
+  <si>
+    <t>['nightmare']</t>
+  </si>
+  <si>
+    <t>["drink"]</t>
+  </si>
+  <si>
+    <t>['anxiety']</t>
+  </si>
+  <si>
+    <t>["dazing"]</t>
+  </si>
+  <si>
+    <t>['hallucinating']</t>
+  </si>
+  <si>
+    <t>['addiction']</t>
+  </si>
+  <si>
+    <t>['depression']</t>
+  </si>
+  <si>
+    <t>['hysteria']</t>
+  </si>
+  <si>
+    <t>['bad', 'trip']</t>
+  </si>
+  <si>
+    <t>["stuttering"]</t>
+  </si>
+  <si>
+    <t>['drug', 'addiction']</t>
+  </si>
+  <si>
+    <t>['binge']</t>
+  </si>
+  <si>
+    <t>["amnesia"]</t>
+  </si>
+  <si>
+    <t>['flashback']</t>
+  </si>
+  <si>
+    <t>['illusion']</t>
+  </si>
+  <si>
+    <t>['psychosis']</t>
+  </si>
+  <si>
+    <t>['incest']</t>
+  </si>
+  <si>
+    <t>['suffered']</t>
+  </si>
+  <si>
+    <t>['mental', 'illness']</t>
+  </si>
+  <si>
+    <t>['abuse']</t>
+  </si>
+  <si>
+    <t>["hyper"],["hyper"]</t>
+  </si>
+  <si>
+    <t>['mania']</t>
+  </si>
+  <si>
+    <t>['see']</t>
+  </si>
+  <si>
+    <t>['deaths']</t>
+  </si>
+  <si>
+    <t>['talking']</t>
+  </si>
+  <si>
+    <t>['term']</t>
+  </si>
+  <si>
+    <t>["eat"]</t>
+  </si>
+  <si>
+    <t>["move"]</t>
+  </si>
+  <si>
+    <t>['expiring']</t>
+  </si>
+  <si>
+    <t>["bowel","movement"]</t>
+  </si>
+  <si>
+    <t>['movement']</t>
+  </si>
+  <si>
+    <t>['dying']</t>
+  </si>
+  <si>
+    <t>['breathing']</t>
+  </si>
+  <si>
+    <t>['smell']</t>
+  </si>
+  <si>
+    <t>['delivery']</t>
+  </si>
+  <si>
+    <t>['effort']</t>
+  </si>
+  <si>
+    <t>["nutrition"]</t>
+  </si>
+  <si>
+    <t>['breakdown']</t>
+  </si>
+  <si>
+    <t>['heal']</t>
+  </si>
+  <si>
+    <t>['balance']</t>
+  </si>
+  <si>
+    <t>['pee']</t>
+  </si>
+  <si>
+    <t>['chew']</t>
+  </si>
+  <si>
+    <t>['ageing']</t>
+  </si>
+  <si>
+    <t>["labour"]</t>
+  </si>
+  <si>
+    <t>['orgasm']</t>
+  </si>
+  <si>
+    <t>['block']</t>
+  </si>
+  <si>
+    <t>["shock"]</t>
+  </si>
+  <si>
+    <t>['sensitive']</t>
+  </si>
+  <si>
+    <t>['side', 'effects']</t>
+  </si>
+  <si>
+    <t>["mods"]</t>
+  </si>
+  <si>
+    <t>['bleed']</t>
+  </si>
+  <si>
+    <t>["hear"]</t>
+  </si>
+  <si>
+    <t>['wake']</t>
+  </si>
+  <si>
+    <t>['tolerance']</t>
+  </si>
+  <si>
+    <t>['suck']</t>
+  </si>
+  <si>
+    <t>['cold']</t>
+  </si>
+  <si>
+    <t>['organization']</t>
+  </si>
+  <si>
+    <t>['spit']</t>
+  </si>
+  <si>
+    <t>['thirst']</t>
+  </si>
+  <si>
+    <t>['pulse']</t>
+  </si>
+  <si>
+    <t>['killed']</t>
+  </si>
+  <si>
+    <t>["fight"]</t>
+  </si>
+  <si>
+    <t>['straight']</t>
+  </si>
+  <si>
+    <t>['laugh']</t>
+  </si>
+  <si>
+    <t>['smile']</t>
+  </si>
+  <si>
+    <t>['gay']</t>
+  </si>
+  <si>
+    <t>['kissed']</t>
+  </si>
+  <si>
+    <t>['lifestyle']</t>
+  </si>
+  <si>
+    <t>['argument']</t>
+  </si>
+  <si>
+    <t>['rape']</t>
+  </si>
+  <si>
+    <t>['murder']</t>
+  </si>
+  <si>
+    <t>['praise']</t>
+  </si>
+  <si>
+    <t>['ill']</t>
+  </si>
+  <si>
+    <t>['chill']</t>
+  </si>
+  <si>
+    <t>["fitted"]</t>
+  </si>
+  <si>
+    <t>['catching']</t>
+  </si>
+  <si>
+    <t>['sick']</t>
+  </si>
+  <si>
+    <t>['tired']</t>
+  </si>
+  <si>
+    <t>["shaking"]</t>
+  </si>
+  <si>
+    <t>['weak']</t>
+  </si>
+  <si>
+    <t>['painful']</t>
+  </si>
+  <si>
+    <t>['nausea']</t>
+  </si>
+  <si>
+    <t>['fever']</t>
+  </si>
+  <si>
+    <t>['winding']</t>
+  </si>
+  <si>
+    <t>['hunger']</t>
+  </si>
+  <si>
+    <t>['burning']</t>
+  </si>
+  <si>
+    <t>['finding']</t>
+  </si>
+  <si>
+    <t>['awkwardness']</t>
+  </si>
+  <si>
+    <t>['hangover']</t>
+  </si>
+  <si>
+    <t>['spots'],['spots']</t>
+  </si>
+  <si>
+    <t>['cough']</t>
+  </si>
+  <si>
+    <t>['sigh']</t>
+  </si>
+  <si>
+    <t>['clubbing']</t>
+  </si>
+  <si>
+    <t>['exhausted']</t>
+  </si>
+  <si>
+    <t>['nervous']</t>
+  </si>
+  <si>
+    <t>['sneeze']</t>
+  </si>
+  <si>
+    <t>['ritual']</t>
+  </si>
+  <si>
+    <t>['sexuality']</t>
+  </si>
+  <si>
+    <t>['thief']</t>
+  </si>
+  <si>
+    <t>['lesbians']</t>
+  </si>
+  <si>
+    <t>['drug', 'dealing']</t>
+  </si>
+  <si>
+    <t>['howling']</t>
+  </si>
+  <si>
+    <t>['submissiveness']</t>
+  </si>
+  <si>
+    <t>['destructive']</t>
+  </si>
+  <si>
+    <t>['defiance']</t>
+  </si>
+  <si>
+    <t>['squeal']</t>
+  </si>
+  <si>
+    <t>['masturbations']</t>
+  </si>
+  <si>
+    <t>['moos']</t>
+  </si>
+  <si>
+    <t>['mood']</t>
+  </si>
+  <si>
+    <t>['consciousness']</t>
+  </si>
+  <si>
+    <t>['guilty']</t>
+  </si>
+  <si>
+    <t>['grief']</t>
+  </si>
+  <si>
+    <t>['imaginations']</t>
+  </si>
+  <si>
+    <t>['keen']</t>
+  </si>
+  <si>
+    <t>['ptsd']</t>
+  </si>
+  <si>
+    <t>['autistic']</t>
+  </si>
+  <si>
+    <t>['sadism']</t>
+  </si>
+  <si>
+    <t>['social', 'anxiety']</t>
+  </si>
+  <si>
+    <t>['alcoholism']</t>
+  </si>
+  <si>
+    <t>['tense']</t>
+  </si>
+  <si>
+    <t>['apathy']</t>
+  </si>
+  <si>
+    <t>['sexual', 'assault']</t>
+  </si>
+  <si>
+    <t>['fetish']</t>
+  </si>
+  <si>
+    <t>['birth']</t>
+  </si>
+  <si>
+    <t>['swallowed']</t>
+  </si>
+  <si>
+    <t>['pregnancy']</t>
+  </si>
+  <si>
+    <t>['fertile']</t>
+  </si>
+  <si>
+    <t>['tickling']</t>
+  </si>
+  <si>
+    <t>['choking']</t>
+  </si>
+  <si>
+    <t>['rash']</t>
+  </si>
+  <si>
+    <t>['allergy']</t>
+  </si>
+  <si>
+    <t>['aspiration']</t>
+  </si>
+  <si>
+    <t>['scarred']</t>
+  </si>
+  <si>
+    <t>['aneurysms']</t>
+  </si>
+  <si>
+    <t>['suffocating']</t>
+  </si>
+  <si>
+    <t>['separation']</t>
+  </si>
+  <si>
+    <t>['progression']</t>
+  </si>
+  <si>
+    <t>['infection']</t>
+  </si>
+  <si>
+    <t>['whitlows']</t>
+  </si>
+  <si>
+    <t>['adverse', 'reaction']</t>
+  </si>
+  <si>
+    <t>['dysfunction']</t>
+  </si>
+  <si>
+    <t>['degenerated']</t>
+  </si>
+  <si>
+    <t>['feminisation']</t>
+  </si>
+  <si>
+    <t>['swelling']</t>
+  </si>
+  <si>
+    <t>['transformations']</t>
+  </si>
+  <si>
+    <t>['life', 'change']</t>
+  </si>
+  <si>
+    <t>['deep', 'sleep']</t>
+  </si>
+  <si>
+    <t>['heart', 'beating']</t>
+  </si>
+  <si>
+    <t>['hopping']</t>
+  </si>
+  <si>
+    <t>['puberty']</t>
+  </si>
+  <si>
+    <t>['compensation']</t>
+  </si>
+  <si>
+    <t>['brain', 'activity']</t>
+  </si>
+  <si>
+    <t>['migration']</t>
+  </si>
+  <si>
+    <t>['abduction']</t>
+  </si>
+  <si>
+    <t>['blood', 'flow']</t>
+  </si>
+  <si>
+    <t>['sexual', 'arousal']</t>
+  </si>
+  <si>
+    <t>['straining']</t>
+  </si>
+  <si>
+    <t>['immunity']</t>
+  </si>
+  <si>
+    <t>['light', 'touch']</t>
+  </si>
+  <si>
+    <t>['coordination']</t>
+  </si>
+  <si>
+    <t>['communication']</t>
+  </si>
+  <si>
+    <t>['riots']</t>
+  </si>
+  <si>
+    <t>['sociability']</t>
+  </si>
+  <si>
+    <t>['gratification']</t>
+  </si>
+  <si>
+    <t>['terrorism']</t>
+  </si>
+  <si>
+    <t>['parenting']</t>
+  </si>
+  <si>
+    <t>['social', 'behaviour']</t>
+  </si>
+  <si>
+    <t>["copulation"]</t>
+  </si>
+  <si>
+    <t>['divorce']</t>
+  </si>
+  <si>
+    <t>['fraud']</t>
+  </si>
+  <si>
+    <t>['parenthood']</t>
+  </si>
+  <si>
+    <t>['petting']</t>
+  </si>
+  <si>
+    <t>['herd']</t>
+  </si>
+  <si>
+    <t>['manslaughter']</t>
+  </si>
+  <si>
+    <t>['prostitution']</t>
+  </si>
+  <si>
+    <t>['adoption']</t>
+  </si>
+  <si>
+    <t>['empowerment']</t>
+  </si>
+  <si>
+    <t>['despair']</t>
+  </si>
+  <si>
+    <t>['fumbling']</t>
+  </si>
+  <si>
+    <t>["miserable"]</t>
+  </si>
+  <si>
+    <t>['spasm']</t>
+  </si>
+  <si>
+    <t>['cramps']</t>
+  </si>
+  <si>
+    <t>['faint'],['fainting'],['swoon']</t>
+  </si>
+  <si>
+    <t>['symptoms']</t>
+  </si>
+  <si>
+    <t>['murderer']</t>
+  </si>
+  <si>
+    <t>['pur']</t>
+  </si>
+  <si>
+    <t>['drink', 'alcohol']</t>
+  </si>
+  <si>
+    <t>['hoard']</t>
+  </si>
+  <si>
+    <t>['intent']</t>
+  </si>
+  <si>
+    <t>['calm']</t>
+  </si>
+  <si>
+    <t>['bullied']</t>
+  </si>
+  <si>
+    <t>['dependence']</t>
+  </si>
+  <si>
+    <t>['sprayed']</t>
+  </si>
+  <si>
+    <t>['delirious']</t>
+  </si>
+  <si>
+    <t>['blocking']</t>
+  </si>
+  <si>
+    <t>['sleepiness']</t>
+  </si>
+  <si>
+    <t>['metabolism']</t>
+  </si>
+  <si>
+    <t>['drug', 'effect']</t>
+  </si>
+  <si>
+    <t>['infiltrated']</t>
+  </si>
+  <si>
+    <t>['infertility']</t>
+  </si>
+  <si>
+    <t>['respiratory', 'depression']</t>
+  </si>
+  <si>
+    <t>['anal', 'bleeding']</t>
+  </si>
+  <si>
+    <t>['whitehead']</t>
+  </si>
+  <si>
+    <t>['slow', 'breathing']</t>
+  </si>
+  <si>
+    <t>['liver', 'damage']</t>
+  </si>
+  <si>
+    <t>['drug', 'side', 'effects']</t>
+  </si>
+  <si>
+    <t>['predation']</t>
+  </si>
+  <si>
+    <t>['sexual', 'harrassment']</t>
+  </si>
+  <si>
+    <t>['promiscuity']</t>
+  </si>
+  <si>
+    <t>['mediated']</t>
+  </si>
+  <si>
+    <t>['black', 'out']</t>
+  </si>
+  <si>
+    <t>['vomiting']</t>
+  </si>
+  <si>
+    <t>['dizzy']</t>
+  </si>
+  <si>
+    <t>['sleeplessness']</t>
+  </si>
+  <si>
+    <t>['memory', 'loss']</t>
+  </si>
+  <si>
+    <t>['ache', 'head']</t>
+  </si>
+  <si>
+    <t>['sore']</t>
+  </si>
+  <si>
+    <t>["animal","cruelty"]</t>
+  </si>
+  <si>
+    <t>['synaesthesia']</t>
+  </si>
+  <si>
+    <t>["sleep"]</t>
   </si>
 </sst>
 </file>
@@ -248,7 +2233,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -262,6 +2247,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -278,10 +2264,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1135,8 +3117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE66D72-652C-413A-8C5F-D13704C76578}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1193,24 +3175,6078 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A68738-DF46-4C50-94F7-5A6A15D91A39}">
+  <dimension ref="A1:E90"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="e272a2e4-4bdf-4402-86c1-14e941d15658" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50F6F4E2-8F0D-419A-B5E4-8235A9D0F903}">
+  <dimension ref="A1:E286"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="44.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" t="s">
+        <v>445</v>
+      </c>
+      <c r="E3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" t="s">
+        <v>590</v>
+      </c>
+      <c r="E4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>434</v>
+      </c>
+      <c r="C5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" t="s">
+        <v>591</v>
+      </c>
+      <c r="E5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" t="s">
+        <v>711</v>
+      </c>
+      <c r="E6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>435</v>
+      </c>
+      <c r="C7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" t="s">
+        <v>446</v>
+      </c>
+      <c r="E7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>435</v>
+      </c>
+      <c r="C8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" t="s">
+        <v>447</v>
+      </c>
+      <c r="E8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>435</v>
+      </c>
+      <c r="C9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" t="s">
+        <v>448</v>
+      </c>
+      <c r="E9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>435</v>
+      </c>
+      <c r="C10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" t="s">
+        <v>449</v>
+      </c>
+      <c r="E10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>435</v>
+      </c>
+      <c r="C11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" t="s">
+        <v>450</v>
+      </c>
+      <c r="E11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>435</v>
+      </c>
+      <c r="C12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" t="s">
+        <v>451</v>
+      </c>
+      <c r="E12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>435</v>
+      </c>
+      <c r="C13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" t="s">
+        <v>452</v>
+      </c>
+      <c r="E13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>435</v>
+      </c>
+      <c r="C14" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" t="s">
+        <v>453</v>
+      </c>
+      <c r="E14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>435</v>
+      </c>
+      <c r="C15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" t="s">
+        <v>454</v>
+      </c>
+      <c r="E15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>435</v>
+      </c>
+      <c r="C16" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" t="s">
+        <v>455</v>
+      </c>
+      <c r="E16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>435</v>
+      </c>
+      <c r="C17" t="s">
+        <v>164</v>
+      </c>
+      <c r="D17" t="s">
+        <v>456</v>
+      </c>
+      <c r="E17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>435</v>
+      </c>
+      <c r="C18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D18" t="s">
+        <v>457</v>
+      </c>
+      <c r="E18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>435</v>
+      </c>
+      <c r="C19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D19" t="s">
+        <v>458</v>
+      </c>
+      <c r="E19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>435</v>
+      </c>
+      <c r="C20" t="s">
+        <v>167</v>
+      </c>
+      <c r="D20" t="s">
+        <v>459</v>
+      </c>
+      <c r="E20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>435</v>
+      </c>
+      <c r="C21" t="s">
+        <v>168</v>
+      </c>
+      <c r="D21" t="s">
+        <v>460</v>
+      </c>
+      <c r="E21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>435</v>
+      </c>
+      <c r="C22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D22" t="s">
+        <v>461</v>
+      </c>
+      <c r="E22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>435</v>
+      </c>
+      <c r="C23" t="s">
+        <v>170</v>
+      </c>
+      <c r="D23" t="s">
+        <v>462</v>
+      </c>
+      <c r="E23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>435</v>
+      </c>
+      <c r="C24" t="s">
+        <v>171</v>
+      </c>
+      <c r="D24" t="s">
+        <v>463</v>
+      </c>
+      <c r="E24" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>435</v>
+      </c>
+      <c r="C25" t="s">
+        <v>172</v>
+      </c>
+      <c r="D25" t="s">
+        <v>464</v>
+      </c>
+      <c r="E25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>435</v>
+      </c>
+      <c r="C26" t="s">
+        <v>173</v>
+      </c>
+      <c r="D26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>435</v>
+      </c>
+      <c r="C27" t="s">
+        <v>174</v>
+      </c>
+      <c r="D27" t="s">
+        <v>466</v>
+      </c>
+      <c r="E27" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>435</v>
+      </c>
+      <c r="C28" t="s">
+        <v>175</v>
+      </c>
+      <c r="D28" t="s">
+        <v>593</v>
+      </c>
+      <c r="E28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>435</v>
+      </c>
+      <c r="C29" t="s">
+        <v>176</v>
+      </c>
+      <c r="D29" t="s">
+        <v>594</v>
+      </c>
+      <c r="E29" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>435</v>
+      </c>
+      <c r="C30" t="s">
+        <v>177</v>
+      </c>
+      <c r="D30" t="s">
+        <v>595</v>
+      </c>
+      <c r="E30" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>435</v>
+      </c>
+      <c r="C31" t="s">
+        <v>178</v>
+      </c>
+      <c r="D31" t="s">
+        <v>596</v>
+      </c>
+      <c r="E31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>435</v>
+      </c>
+      <c r="C32" t="s">
+        <v>179</v>
+      </c>
+      <c r="D32" t="s">
+        <v>597</v>
+      </c>
+      <c r="E32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>435</v>
+      </c>
+      <c r="C33" t="s">
+        <v>180</v>
+      </c>
+      <c r="D33" t="s">
+        <v>598</v>
+      </c>
+      <c r="E33" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>435</v>
+      </c>
+      <c r="C34" t="s">
+        <v>181</v>
+      </c>
+      <c r="D34" t="s">
+        <v>599</v>
+      </c>
+      <c r="E34" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>435</v>
+      </c>
+      <c r="C35" t="s">
+        <v>182</v>
+      </c>
+      <c r="D35" t="s">
+        <v>600</v>
+      </c>
+      <c r="E35" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>435</v>
+      </c>
+      <c r="C36" t="s">
+        <v>183</v>
+      </c>
+      <c r="D36" t="s">
+        <v>601</v>
+      </c>
+      <c r="E36" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>435</v>
+      </c>
+      <c r="C37" t="s">
+        <v>184</v>
+      </c>
+      <c r="D37" t="s">
+        <v>592</v>
+      </c>
+      <c r="E37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>435</v>
+      </c>
+      <c r="C38" t="s">
+        <v>185</v>
+      </c>
+      <c r="D38" t="s">
+        <v>678</v>
+      </c>
+      <c r="E38" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>435</v>
+      </c>
+      <c r="C39" t="s">
+        <v>186</v>
+      </c>
+      <c r="D39" t="s">
+        <v>679</v>
+      </c>
+      <c r="E39" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>435</v>
+      </c>
+      <c r="C40" t="s">
+        <v>187</v>
+      </c>
+      <c r="D40" t="s">
+        <v>680</v>
+      </c>
+      <c r="E40" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>435</v>
+      </c>
+      <c r="C41" t="s">
+        <v>188</v>
+      </c>
+      <c r="D41" t="s">
+        <v>681</v>
+      </c>
+      <c r="E41" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>436</v>
+      </c>
+      <c r="C42" t="s">
+        <v>189</v>
+      </c>
+      <c r="D42" t="s">
+        <v>467</v>
+      </c>
+      <c r="E42" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>436</v>
+      </c>
+      <c r="C43" t="s">
+        <v>190</v>
+      </c>
+      <c r="D43" t="s">
+        <v>468</v>
+      </c>
+      <c r="E43" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>436</v>
+      </c>
+      <c r="C44" t="s">
+        <v>191</v>
+      </c>
+      <c r="D44" t="s">
+        <v>469</v>
+      </c>
+      <c r="E44" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>436</v>
+      </c>
+      <c r="C45" t="s">
+        <v>192</v>
+      </c>
+      <c r="D45" t="s">
+        <v>470</v>
+      </c>
+      <c r="E45" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>436</v>
+      </c>
+      <c r="C46" t="s">
+        <v>193</v>
+      </c>
+      <c r="D46" t="s">
+        <v>471</v>
+      </c>
+      <c r="E46" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>436</v>
+      </c>
+      <c r="C47" t="s">
+        <v>194</v>
+      </c>
+      <c r="D47" t="s">
+        <v>472</v>
+      </c>
+      <c r="E47" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>436</v>
+      </c>
+      <c r="C48" t="s">
+        <v>195</v>
+      </c>
+      <c r="D48" t="s">
+        <v>473</v>
+      </c>
+      <c r="E48" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>436</v>
+      </c>
+      <c r="C49" t="s">
+        <v>196</v>
+      </c>
+      <c r="D49" t="s">
+        <v>474</v>
+      </c>
+      <c r="E49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>436</v>
+      </c>
+      <c r="C50" t="s">
+        <v>197</v>
+      </c>
+      <c r="D50" t="s">
+        <v>475</v>
+      </c>
+      <c r="E50" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>436</v>
+      </c>
+      <c r="C51" t="s">
+        <v>198</v>
+      </c>
+      <c r="D51" t="s">
+        <v>476</v>
+      </c>
+      <c r="E51" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>436</v>
+      </c>
+      <c r="C52" t="s">
+        <v>199</v>
+      </c>
+      <c r="D52" t="s">
+        <v>477</v>
+      </c>
+      <c r="E52" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>436</v>
+      </c>
+      <c r="C53" t="s">
+        <v>200</v>
+      </c>
+      <c r="D53" t="s">
+        <v>478</v>
+      </c>
+      <c r="E53" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>436</v>
+      </c>
+      <c r="C54" t="s">
+        <v>201</v>
+      </c>
+      <c r="D54" t="s">
+        <v>479</v>
+      </c>
+      <c r="E54" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>436</v>
+      </c>
+      <c r="C55" t="s">
+        <v>202</v>
+      </c>
+      <c r="D55" t="s">
+        <v>480</v>
+      </c>
+      <c r="E55" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>436</v>
+      </c>
+      <c r="C56" t="s">
+        <v>203</v>
+      </c>
+      <c r="D56" t="s">
+        <v>481</v>
+      </c>
+      <c r="E56" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>436</v>
+      </c>
+      <c r="C57" t="s">
+        <v>204</v>
+      </c>
+      <c r="D57" t="s">
+        <v>482</v>
+      </c>
+      <c r="E57" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>436</v>
+      </c>
+      <c r="C58" t="s">
+        <v>205</v>
+      </c>
+      <c r="D58" t="s">
+        <v>483</v>
+      </c>
+      <c r="E58" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>436</v>
+      </c>
+      <c r="C59" t="s">
+        <v>206</v>
+      </c>
+      <c r="D59" t="s">
+        <v>484</v>
+      </c>
+      <c r="E59" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>436</v>
+      </c>
+      <c r="C60" t="s">
+        <v>207</v>
+      </c>
+      <c r="D60" t="s">
+        <v>485</v>
+      </c>
+      <c r="E60" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>436</v>
+      </c>
+      <c r="C61" t="s">
+        <v>208</v>
+      </c>
+      <c r="D61" t="s">
+        <v>486</v>
+      </c>
+      <c r="E61" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>436</v>
+      </c>
+      <c r="C62" t="s">
+        <v>209</v>
+      </c>
+      <c r="D62" t="s">
+        <v>487</v>
+      </c>
+      <c r="E62" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>436</v>
+      </c>
+      <c r="C63" t="s">
+        <v>210</v>
+      </c>
+      <c r="D63" t="s">
+        <v>488</v>
+      </c>
+      <c r="E63" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>436</v>
+      </c>
+      <c r="C64" t="s">
+        <v>211</v>
+      </c>
+      <c r="D64" t="s">
+        <v>489</v>
+      </c>
+      <c r="E64" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>436</v>
+      </c>
+      <c r="C65" t="s">
+        <v>212</v>
+      </c>
+      <c r="D65" t="s">
+        <v>490</v>
+      </c>
+      <c r="E65" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>436</v>
+      </c>
+      <c r="C66" t="s">
+        <v>213</v>
+      </c>
+      <c r="D66" t="s">
+        <v>491</v>
+      </c>
+      <c r="E66" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>436</v>
+      </c>
+      <c r="C67" t="s">
+        <v>214</v>
+      </c>
+      <c r="D67" t="s">
+        <v>492</v>
+      </c>
+      <c r="E67" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>436</v>
+      </c>
+      <c r="C68" t="s">
+        <v>215</v>
+      </c>
+      <c r="D68" t="s">
+        <v>602</v>
+      </c>
+      <c r="E68" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>436</v>
+      </c>
+      <c r="C69" t="s">
+        <v>216</v>
+      </c>
+      <c r="D69" t="s">
+        <v>603</v>
+      </c>
+      <c r="E69" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>436</v>
+      </c>
+      <c r="C70" t="s">
+        <v>217</v>
+      </c>
+      <c r="D70" t="s">
+        <v>604</v>
+      </c>
+      <c r="E70" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>436</v>
+      </c>
+      <c r="C71" t="s">
+        <v>218</v>
+      </c>
+      <c r="D71" t="s">
+        <v>605</v>
+      </c>
+      <c r="E71" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>436</v>
+      </c>
+      <c r="C72" t="s">
+        <v>219</v>
+      </c>
+      <c r="D72" t="s">
+        <v>606</v>
+      </c>
+      <c r="E72" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>436</v>
+      </c>
+      <c r="C73" t="s">
+        <v>220</v>
+      </c>
+      <c r="D73" t="s">
+        <v>607</v>
+      </c>
+      <c r="E73" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>436</v>
+      </c>
+      <c r="C74" t="s">
+        <v>221</v>
+      </c>
+      <c r="D74" t="s">
+        <v>682</v>
+      </c>
+      <c r="E74" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>436</v>
+      </c>
+      <c r="C75" t="s">
+        <v>222</v>
+      </c>
+      <c r="D75" t="s">
+        <v>683</v>
+      </c>
+      <c r="E75" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>437</v>
+      </c>
+      <c r="C76" t="s">
+        <v>223</v>
+      </c>
+      <c r="D76" t="s">
+        <v>493</v>
+      </c>
+      <c r="E76" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>437</v>
+      </c>
+      <c r="C77" t="s">
+        <v>224</v>
+      </c>
+      <c r="D77" t="s">
+        <v>494</v>
+      </c>
+      <c r="E77" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>437</v>
+      </c>
+      <c r="C78" t="s">
+        <v>225</v>
+      </c>
+      <c r="D78" t="s">
+        <v>495</v>
+      </c>
+      <c r="E78" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>437</v>
+      </c>
+      <c r="C79" t="s">
+        <v>226</v>
+      </c>
+      <c r="D79" t="s">
+        <v>496</v>
+      </c>
+      <c r="E79" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>437</v>
+      </c>
+      <c r="C80" t="s">
+        <v>227</v>
+      </c>
+      <c r="D80" t="s">
+        <v>496</v>
+      </c>
+      <c r="E80" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>437</v>
+      </c>
+      <c r="C81" t="s">
+        <v>228</v>
+      </c>
+      <c r="D81" t="s">
+        <v>450</v>
+      </c>
+      <c r="E81" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>437</v>
+      </c>
+      <c r="C82" t="s">
+        <v>229</v>
+      </c>
+      <c r="D82" t="s">
+        <v>497</v>
+      </c>
+      <c r="E82" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>437</v>
+      </c>
+      <c r="C83" t="s">
+        <v>230</v>
+      </c>
+      <c r="D83" t="s">
+        <v>498</v>
+      </c>
+      <c r="E83" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>437</v>
+      </c>
+      <c r="C84" t="s">
+        <v>231</v>
+      </c>
+      <c r="D84" t="s">
+        <v>499</v>
+      </c>
+      <c r="E84" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>437</v>
+      </c>
+      <c r="C85" t="s">
+        <v>232</v>
+      </c>
+      <c r="D85" t="s">
+        <v>500</v>
+      </c>
+      <c r="E85" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>437</v>
+      </c>
+      <c r="C86" t="s">
+        <v>233</v>
+      </c>
+      <c r="D86" t="s">
+        <v>501</v>
+      </c>
+      <c r="E86" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>437</v>
+      </c>
+      <c r="C87" t="s">
+        <v>234</v>
+      </c>
+      <c r="D87" t="s">
+        <v>501</v>
+      </c>
+      <c r="E87" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>437</v>
+      </c>
+      <c r="C88" t="s">
+        <v>235</v>
+      </c>
+      <c r="D88" t="s">
+        <v>502</v>
+      </c>
+      <c r="E88" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>437</v>
+      </c>
+      <c r="C89" t="s">
+        <v>236</v>
+      </c>
+      <c r="D89" t="s">
+        <v>503</v>
+      </c>
+      <c r="E89" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>437</v>
+      </c>
+      <c r="C90" t="s">
+        <v>237</v>
+      </c>
+      <c r="D90" t="s">
+        <v>504</v>
+      </c>
+      <c r="E90" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>437</v>
+      </c>
+      <c r="C91" t="s">
+        <v>238</v>
+      </c>
+      <c r="D91" t="s">
+        <v>505</v>
+      </c>
+      <c r="E91" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>437</v>
+      </c>
+      <c r="C92" t="s">
+        <v>239</v>
+      </c>
+      <c r="D92" t="s">
+        <v>506</v>
+      </c>
+      <c r="E92" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>437</v>
+      </c>
+      <c r="C93" t="s">
+        <v>240</v>
+      </c>
+      <c r="D93" t="s">
+        <v>500</v>
+      </c>
+      <c r="E93" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>437</v>
+      </c>
+      <c r="C94" t="s">
+        <v>241</v>
+      </c>
+      <c r="D94" t="s">
+        <v>500</v>
+      </c>
+      <c r="E94" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>437</v>
+      </c>
+      <c r="C95" t="s">
+        <v>242</v>
+      </c>
+      <c r="D95" t="s">
+        <v>507</v>
+      </c>
+      <c r="E95" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>437</v>
+      </c>
+      <c r="C96" t="s">
+        <v>243</v>
+      </c>
+      <c r="D96" t="s">
+        <v>508</v>
+      </c>
+      <c r="E96" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>437</v>
+      </c>
+      <c r="C97" t="s">
+        <v>244</v>
+      </c>
+      <c r="D97" t="s">
+        <v>509</v>
+      </c>
+      <c r="E97" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>437</v>
+      </c>
+      <c r="C98" t="s">
+        <v>245</v>
+      </c>
+      <c r="D98" t="s">
+        <v>509</v>
+      </c>
+      <c r="E98" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>437</v>
+      </c>
+      <c r="C99" t="s">
+        <v>246</v>
+      </c>
+      <c r="D99" t="s">
+        <v>510</v>
+      </c>
+      <c r="E99" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>437</v>
+      </c>
+      <c r="C100" t="s">
+        <v>247</v>
+      </c>
+      <c r="D100" t="s">
+        <v>511</v>
+      </c>
+      <c r="E100" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>437</v>
+      </c>
+      <c r="C101" t="s">
+        <v>248</v>
+      </c>
+      <c r="D101" t="s">
+        <v>512</v>
+      </c>
+      <c r="E101" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>437</v>
+      </c>
+      <c r="C102" t="s">
+        <v>249</v>
+      </c>
+      <c r="D102" t="s">
+        <v>712</v>
+      </c>
+      <c r="E102" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>437</v>
+      </c>
+      <c r="C103" t="s">
+        <v>250</v>
+      </c>
+      <c r="D103" t="s">
+        <v>513</v>
+      </c>
+      <c r="E103" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>437</v>
+      </c>
+      <c r="C104" t="s">
+        <v>251</v>
+      </c>
+      <c r="D104" t="s">
+        <v>514</v>
+      </c>
+      <c r="E104" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>437</v>
+      </c>
+      <c r="C105" t="s">
+        <v>252</v>
+      </c>
+      <c r="D105" t="s">
+        <v>515</v>
+      </c>
+      <c r="E105" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>437</v>
+      </c>
+      <c r="C106" t="s">
+        <v>253</v>
+      </c>
+      <c r="D106" t="s">
+        <v>608</v>
+      </c>
+      <c r="E106" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>437</v>
+      </c>
+      <c r="C107" t="s">
+        <v>254</v>
+      </c>
+      <c r="D107" t="s">
+        <v>609</v>
+      </c>
+      <c r="E107" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>437</v>
+      </c>
+      <c r="C108" t="s">
+        <v>255</v>
+      </c>
+      <c r="D108" t="s">
+        <v>610</v>
+      </c>
+      <c r="E108" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>437</v>
+      </c>
+      <c r="C109" t="s">
+        <v>256</v>
+      </c>
+      <c r="D109" t="s">
+        <v>611</v>
+      </c>
+      <c r="E109" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>437</v>
+      </c>
+      <c r="C110" t="s">
+        <v>257</v>
+      </c>
+      <c r="D110" t="s">
+        <v>612</v>
+      </c>
+      <c r="E110" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>437</v>
+      </c>
+      <c r="C111" t="s">
+        <v>258</v>
+      </c>
+      <c r="D111" t="s">
+        <v>590</v>
+      </c>
+      <c r="E111" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>437</v>
+      </c>
+      <c r="C112" t="s">
+        <v>259</v>
+      </c>
+      <c r="D112" t="s">
+        <v>613</v>
+      </c>
+      <c r="E112" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>437</v>
+      </c>
+      <c r="C113" t="s">
+        <v>260</v>
+      </c>
+      <c r="D113" t="s">
+        <v>614</v>
+      </c>
+      <c r="E113" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>437</v>
+      </c>
+      <c r="C114" t="s">
+        <v>261</v>
+      </c>
+      <c r="D114" t="s">
+        <v>615</v>
+      </c>
+      <c r="E114" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>437</v>
+      </c>
+      <c r="C115" t="s">
+        <v>262</v>
+      </c>
+      <c r="D115" t="s">
+        <v>616</v>
+      </c>
+      <c r="E115" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>437</v>
+      </c>
+      <c r="C116" t="s">
+        <v>263</v>
+      </c>
+      <c r="D116" t="s">
+        <v>684</v>
+      </c>
+      <c r="E116" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>437</v>
+      </c>
+      <c r="C117" t="s">
+        <v>264</v>
+      </c>
+      <c r="D117" t="s">
+        <v>685</v>
+      </c>
+      <c r="E117" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>437</v>
+      </c>
+      <c r="C118" t="s">
+        <v>265</v>
+      </c>
+      <c r="D118" t="s">
+        <v>686</v>
+      </c>
+      <c r="E118" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>437</v>
+      </c>
+      <c r="C119" t="s">
+        <v>266</v>
+      </c>
+      <c r="D119" t="s">
+        <v>687</v>
+      </c>
+      <c r="E119" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>437</v>
+      </c>
+      <c r="C120" t="s">
+        <v>267</v>
+      </c>
+      <c r="D120" t="s">
+        <v>688</v>
+      </c>
+      <c r="E120" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>437</v>
+      </c>
+      <c r="C121" t="s">
+        <v>268</v>
+      </c>
+      <c r="D121" t="s">
+        <v>689</v>
+      </c>
+      <c r="E121" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>438</v>
+      </c>
+      <c r="C122" t="s">
+        <v>269</v>
+      </c>
+      <c r="D122" t="s">
+        <v>516</v>
+      </c>
+      <c r="E122" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>438</v>
+      </c>
+      <c r="C123" t="s">
+        <v>270</v>
+      </c>
+      <c r="D123" t="s">
+        <v>517</v>
+      </c>
+      <c r="E123" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>438</v>
+      </c>
+      <c r="C124" t="s">
+        <v>271</v>
+      </c>
+      <c r="D124" t="s">
+        <v>518</v>
+      </c>
+      <c r="E124" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>438</v>
+      </c>
+      <c r="C125" t="s">
+        <v>272</v>
+      </c>
+      <c r="D125" t="s">
+        <v>519</v>
+      </c>
+      <c r="E125" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>438</v>
+      </c>
+      <c r="C126" t="s">
+        <v>273</v>
+      </c>
+      <c r="D126" t="s">
+        <v>444</v>
+      </c>
+      <c r="E126" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>438</v>
+      </c>
+      <c r="C127" t="s">
+        <v>274</v>
+      </c>
+      <c r="D127" t="s">
+        <v>520</v>
+      </c>
+      <c r="E127" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>438</v>
+      </c>
+      <c r="C128" t="s">
+        <v>275</v>
+      </c>
+      <c r="D128" t="s">
+        <v>521</v>
+      </c>
+      <c r="E128" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>438</v>
+      </c>
+      <c r="C129" t="s">
+        <v>276</v>
+      </c>
+      <c r="D129" t="s">
+        <v>713</v>
+      </c>
+      <c r="E129" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>438</v>
+      </c>
+      <c r="C130" t="s">
+        <v>277</v>
+      </c>
+      <c r="D130" t="s">
+        <v>522</v>
+      </c>
+      <c r="E130" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>438</v>
+      </c>
+      <c r="C131" t="s">
+        <v>278</v>
+      </c>
+      <c r="D131" t="s">
+        <v>523</v>
+      </c>
+      <c r="E131" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>438</v>
+      </c>
+      <c r="C132" t="s">
+        <v>279</v>
+      </c>
+      <c r="D132" t="s">
+        <v>524</v>
+      </c>
+      <c r="E132" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>438</v>
+      </c>
+      <c r="C133" t="s">
+        <v>280</v>
+      </c>
+      <c r="D133" t="s">
+        <v>525</v>
+      </c>
+      <c r="E133" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>438</v>
+      </c>
+      <c r="C134" t="s">
+        <v>281</v>
+      </c>
+      <c r="D134" t="s">
+        <v>526</v>
+      </c>
+      <c r="E134" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>438</v>
+      </c>
+      <c r="C135" t="s">
+        <v>282</v>
+      </c>
+      <c r="D135" t="s">
+        <v>527</v>
+      </c>
+      <c r="E135" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>438</v>
+      </c>
+      <c r="C136" t="s">
+        <v>283</v>
+      </c>
+      <c r="D136" t="s">
+        <v>528</v>
+      </c>
+      <c r="E136" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>438</v>
+      </c>
+      <c r="C137" t="s">
+        <v>284</v>
+      </c>
+      <c r="D137" t="s">
+        <v>447</v>
+      </c>
+      <c r="E137" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>438</v>
+      </c>
+      <c r="C138" t="s">
+        <v>285</v>
+      </c>
+      <c r="D138" t="s">
+        <v>529</v>
+      </c>
+      <c r="E138" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>438</v>
+      </c>
+      <c r="C139" t="s">
+        <v>286</v>
+      </c>
+      <c r="D139" t="s">
+        <v>530</v>
+      </c>
+      <c r="E139" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>438</v>
+      </c>
+      <c r="C140" t="s">
+        <v>287</v>
+      </c>
+      <c r="D140" t="s">
+        <v>531</v>
+      </c>
+      <c r="E140" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>438</v>
+      </c>
+      <c r="C141" t="s">
+        <v>288</v>
+      </c>
+      <c r="D141" t="s">
+        <v>532</v>
+      </c>
+      <c r="E141" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>438</v>
+      </c>
+      <c r="C142" t="s">
+        <v>289</v>
+      </c>
+      <c r="D142" t="s">
+        <v>533</v>
+      </c>
+      <c r="E142" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>438</v>
+      </c>
+      <c r="C143" t="s">
+        <v>290</v>
+      </c>
+      <c r="D143" t="s">
+        <v>534</v>
+      </c>
+      <c r="E143" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>438</v>
+      </c>
+      <c r="C144" t="s">
+        <v>291</v>
+      </c>
+      <c r="D144" t="s">
+        <v>535</v>
+      </c>
+      <c r="E144" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>438</v>
+      </c>
+      <c r="C145" t="s">
+        <v>292</v>
+      </c>
+      <c r="D145" t="s">
+        <v>536</v>
+      </c>
+      <c r="E145" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>438</v>
+      </c>
+      <c r="C146" t="s">
+        <v>293</v>
+      </c>
+      <c r="D146" t="s">
+        <v>537</v>
+      </c>
+      <c r="E146" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>438</v>
+      </c>
+      <c r="C147" t="s">
+        <v>294</v>
+      </c>
+      <c r="D147" t="s">
+        <v>538</v>
+      </c>
+      <c r="E147" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>438</v>
+      </c>
+      <c r="C148" t="s">
+        <v>295</v>
+      </c>
+      <c r="D148" t="s">
+        <v>617</v>
+      </c>
+      <c r="E148" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>438</v>
+      </c>
+      <c r="C149" t="s">
+        <v>296</v>
+      </c>
+      <c r="D149" t="s">
+        <v>618</v>
+      </c>
+      <c r="E149" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>438</v>
+      </c>
+      <c r="C150" t="s">
+        <v>297</v>
+      </c>
+      <c r="D150" t="s">
+        <v>619</v>
+      </c>
+      <c r="E150" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>438</v>
+      </c>
+      <c r="C151" t="s">
+        <v>298</v>
+      </c>
+      <c r="D151" t="s">
+        <v>620</v>
+      </c>
+      <c r="E151" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>438</v>
+      </c>
+      <c r="C152" t="s">
+        <v>299</v>
+      </c>
+      <c r="D152" t="s">
+        <v>621</v>
+      </c>
+      <c r="E152" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>438</v>
+      </c>
+      <c r="C153" t="s">
+        <v>300</v>
+      </c>
+      <c r="D153" t="s">
+        <v>690</v>
+      </c>
+      <c r="E153" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>439</v>
+      </c>
+      <c r="C154" t="s">
+        <v>301</v>
+      </c>
+      <c r="D154" t="s">
+        <v>539</v>
+      </c>
+      <c r="E154" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>439</v>
+      </c>
+      <c r="C155" t="s">
+        <v>302</v>
+      </c>
+      <c r="D155" t="s">
+        <v>540</v>
+      </c>
+      <c r="E155" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>439</v>
+      </c>
+      <c r="C156" t="s">
+        <v>303</v>
+      </c>
+      <c r="D156" t="s">
+        <v>541</v>
+      </c>
+      <c r="E156" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>439</v>
+      </c>
+      <c r="C157" t="s">
+        <v>304</v>
+      </c>
+      <c r="D157" t="s">
+        <v>542</v>
+      </c>
+      <c r="E157" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>439</v>
+      </c>
+      <c r="C158" t="s">
+        <v>305</v>
+      </c>
+      <c r="D158" t="s">
+        <v>543</v>
+      </c>
+      <c r="E158" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>439</v>
+      </c>
+      <c r="C159" t="s">
+        <v>306</v>
+      </c>
+      <c r="D159" t="s">
+        <v>544</v>
+      </c>
+      <c r="E159" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>439</v>
+      </c>
+      <c r="C160" t="s">
+        <v>307</v>
+      </c>
+      <c r="D160" t="s">
+        <v>622</v>
+      </c>
+      <c r="E160" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>439</v>
+      </c>
+      <c r="C161" t="s">
+        <v>308</v>
+      </c>
+      <c r="D161" t="s">
+        <v>623</v>
+      </c>
+      <c r="E161" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>439</v>
+      </c>
+      <c r="C162" t="s">
+        <v>309</v>
+      </c>
+      <c r="D162" t="s">
+        <v>624</v>
+      </c>
+      <c r="E162" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>439</v>
+      </c>
+      <c r="C163" t="s">
+        <v>310</v>
+      </c>
+      <c r="D163" t="s">
+        <v>625</v>
+      </c>
+      <c r="E163" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>439</v>
+      </c>
+      <c r="C164" t="s">
+        <v>311</v>
+      </c>
+      <c r="D164" t="s">
+        <v>625</v>
+      </c>
+      <c r="E164" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>439</v>
+      </c>
+      <c r="C165" t="s">
+        <v>312</v>
+      </c>
+      <c r="D165" t="s">
+        <v>626</v>
+      </c>
+      <c r="E165" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>439</v>
+      </c>
+      <c r="C166" t="s">
+        <v>313</v>
+      </c>
+      <c r="D166" t="s">
+        <v>627</v>
+      </c>
+      <c r="E166" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>439</v>
+      </c>
+      <c r="C167" t="s">
+        <v>314</v>
+      </c>
+      <c r="D167" t="s">
+        <v>628</v>
+      </c>
+      <c r="E167" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>439</v>
+      </c>
+      <c r="C168" t="s">
+        <v>315</v>
+      </c>
+      <c r="D168" t="s">
+        <v>629</v>
+      </c>
+      <c r="E168" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>439</v>
+      </c>
+      <c r="C169" t="s">
+        <v>316</v>
+      </c>
+      <c r="D169" t="s">
+        <v>630</v>
+      </c>
+      <c r="E169" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>439</v>
+      </c>
+      <c r="C170" t="s">
+        <v>317</v>
+      </c>
+      <c r="D170" t="s">
+        <v>631</v>
+      </c>
+      <c r="E170" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>439</v>
+      </c>
+      <c r="C171" t="s">
+        <v>318</v>
+      </c>
+      <c r="D171" t="s">
+        <v>632</v>
+      </c>
+      <c r="E171" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>439</v>
+      </c>
+      <c r="C172" t="s">
+        <v>319</v>
+      </c>
+      <c r="D172" t="s">
+        <v>633</v>
+      </c>
+      <c r="E172" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>439</v>
+      </c>
+      <c r="C173" t="s">
+        <v>320</v>
+      </c>
+      <c r="D173" t="s">
+        <v>634</v>
+      </c>
+      <c r="E173" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>439</v>
+      </c>
+      <c r="C174" t="s">
+        <v>321</v>
+      </c>
+      <c r="D174" t="s">
+        <v>635</v>
+      </c>
+      <c r="E174" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>439</v>
+      </c>
+      <c r="C175" t="s">
+        <v>322</v>
+      </c>
+      <c r="D175" t="s">
+        <v>636</v>
+      </c>
+      <c r="E175" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>439</v>
+      </c>
+      <c r="C176" t="s">
+        <v>323</v>
+      </c>
+      <c r="D176" t="s">
+        <v>637</v>
+      </c>
+      <c r="E176" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>439</v>
+      </c>
+      <c r="C177" t="s">
+        <v>324</v>
+      </c>
+      <c r="D177" t="s">
+        <v>691</v>
+      </c>
+      <c r="E177" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>439</v>
+      </c>
+      <c r="C178" t="s">
+        <v>325</v>
+      </c>
+      <c r="D178" t="s">
+        <v>692</v>
+      </c>
+      <c r="E178" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>439</v>
+      </c>
+      <c r="C179" t="s">
+        <v>326</v>
+      </c>
+      <c r="D179" t="s">
+        <v>693</v>
+      </c>
+      <c r="E179" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>439</v>
+      </c>
+      <c r="C180" t="s">
+        <v>327</v>
+      </c>
+      <c r="D180" t="s">
+        <v>694</v>
+      </c>
+      <c r="E180" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>439</v>
+      </c>
+      <c r="C181" t="s">
+        <v>328</v>
+      </c>
+      <c r="D181" t="s">
+        <v>695</v>
+      </c>
+      <c r="E181" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>439</v>
+      </c>
+      <c r="C182" t="s">
+        <v>329</v>
+      </c>
+      <c r="D182" t="s">
+        <v>696</v>
+      </c>
+      <c r="E182" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>439</v>
+      </c>
+      <c r="C183" t="s">
+        <v>330</v>
+      </c>
+      <c r="D183" t="s">
+        <v>697</v>
+      </c>
+      <c r="E183" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>439</v>
+      </c>
+      <c r="C184" t="s">
+        <v>331</v>
+      </c>
+      <c r="D184" t="s">
+        <v>698</v>
+      </c>
+      <c r="E184" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>439</v>
+      </c>
+      <c r="C185" t="s">
+        <v>332</v>
+      </c>
+      <c r="D185" t="s">
+        <v>699</v>
+      </c>
+      <c r="E185" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>440</v>
+      </c>
+      <c r="C186" t="s">
+        <v>333</v>
+      </c>
+      <c r="D186" t="s">
+        <v>638</v>
+      </c>
+      <c r="E186" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>440</v>
+      </c>
+      <c r="C187" t="s">
+        <v>334</v>
+      </c>
+      <c r="D187" t="s">
+        <v>639</v>
+      </c>
+      <c r="E187" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>440</v>
+      </c>
+      <c r="C188" t="s">
+        <v>335</v>
+      </c>
+      <c r="D188" t="s">
+        <v>640</v>
+      </c>
+      <c r="E188" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>440</v>
+      </c>
+      <c r="C189" t="s">
+        <v>336</v>
+      </c>
+      <c r="D189" t="s">
+        <v>641</v>
+      </c>
+      <c r="E189" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>440</v>
+      </c>
+      <c r="C190" t="s">
+        <v>337</v>
+      </c>
+      <c r="D190" t="s">
+        <v>642</v>
+      </c>
+      <c r="E190" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>440</v>
+      </c>
+      <c r="C191" t="s">
+        <v>338</v>
+      </c>
+      <c r="D191" t="s">
+        <v>643</v>
+      </c>
+      <c r="E191" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>440</v>
+      </c>
+      <c r="C192" t="s">
+        <v>339</v>
+      </c>
+      <c r="D192" t="s">
+        <v>644</v>
+      </c>
+      <c r="E192" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>440</v>
+      </c>
+      <c r="C193" t="s">
+        <v>340</v>
+      </c>
+      <c r="D193" t="s">
+        <v>645</v>
+      </c>
+      <c r="E193" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>440</v>
+      </c>
+      <c r="C194" t="s">
+        <v>341</v>
+      </c>
+      <c r="D194" t="s">
+        <v>646</v>
+      </c>
+      <c r="E194" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>440</v>
+      </c>
+      <c r="C195" t="s">
+        <v>342</v>
+      </c>
+      <c r="D195" t="s">
+        <v>647</v>
+      </c>
+      <c r="E195" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>440</v>
+      </c>
+      <c r="C196" t="s">
+        <v>343</v>
+      </c>
+      <c r="D196" t="s">
+        <v>648</v>
+      </c>
+      <c r="E196" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>440</v>
+      </c>
+      <c r="C197" t="s">
+        <v>344</v>
+      </c>
+      <c r="D197" t="s">
+        <v>649</v>
+      </c>
+      <c r="E197" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>440</v>
+      </c>
+      <c r="C198" t="s">
+        <v>345</v>
+      </c>
+      <c r="D198" t="s">
+        <v>650</v>
+      </c>
+      <c r="E198" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>440</v>
+      </c>
+      <c r="C199" t="s">
+        <v>346</v>
+      </c>
+      <c r="D199" t="s">
+        <v>651</v>
+      </c>
+      <c r="E199" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>440</v>
+      </c>
+      <c r="C200" t="s">
+        <v>347</v>
+      </c>
+      <c r="D200" t="s">
+        <v>652</v>
+      </c>
+      <c r="E200" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>440</v>
+      </c>
+      <c r="C201" t="s">
+        <v>348</v>
+      </c>
+      <c r="D201" t="s">
+        <v>653</v>
+      </c>
+      <c r="E201" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>440</v>
+      </c>
+      <c r="C202" t="s">
+        <v>349</v>
+      </c>
+      <c r="D202" t="s">
+        <v>545</v>
+      </c>
+      <c r="E202" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>440</v>
+      </c>
+      <c r="C203" t="s">
+        <v>350</v>
+      </c>
+      <c r="D203" t="s">
+        <v>546</v>
+      </c>
+      <c r="E203" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>440</v>
+      </c>
+      <c r="C204" t="s">
+        <v>351</v>
+      </c>
+      <c r="D204" t="s">
+        <v>547</v>
+      </c>
+      <c r="E204" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>440</v>
+      </c>
+      <c r="C205" t="s">
+        <v>352</v>
+      </c>
+      <c r="D205" t="s">
+        <v>548</v>
+      </c>
+      <c r="E205" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>440</v>
+      </c>
+      <c r="C206" t="s">
+        <v>353</v>
+      </c>
+      <c r="D206" t="s">
+        <v>549</v>
+      </c>
+      <c r="E206" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>440</v>
+      </c>
+      <c r="C207" t="s">
+        <v>354</v>
+      </c>
+      <c r="D207" t="s">
+        <v>550</v>
+      </c>
+      <c r="E207" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>440</v>
+      </c>
+      <c r="C208" t="s">
+        <v>355</v>
+      </c>
+      <c r="D208" t="s">
+        <v>551</v>
+      </c>
+      <c r="E208" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>440</v>
+      </c>
+      <c r="C209" t="s">
+        <v>356</v>
+      </c>
+      <c r="D209" t="s">
+        <v>552</v>
+      </c>
+      <c r="E209" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>440</v>
+      </c>
+      <c r="C210" t="s">
+        <v>357</v>
+      </c>
+      <c r="D210" t="s">
+        <v>526</v>
+      </c>
+      <c r="E210" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>440</v>
+      </c>
+      <c r="C211" t="s">
+        <v>358</v>
+      </c>
+      <c r="D211" t="s">
+        <v>553</v>
+      </c>
+      <c r="E211" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>441</v>
+      </c>
+      <c r="C212" t="s">
+        <v>359</v>
+      </c>
+      <c r="D212" t="s">
+        <v>554</v>
+      </c>
+      <c r="E212" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>441</v>
+      </c>
+      <c r="C213" t="s">
+        <v>360</v>
+      </c>
+      <c r="D213" t="s">
+        <v>555</v>
+      </c>
+      <c r="E213" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>441</v>
+      </c>
+      <c r="C214" t="s">
+        <v>361</v>
+      </c>
+      <c r="D214" t="s">
+        <v>556</v>
+      </c>
+      <c r="E214" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>441</v>
+      </c>
+      <c r="C215" t="s">
+        <v>362</v>
+      </c>
+      <c r="D215" t="s">
+        <v>557</v>
+      </c>
+      <c r="E215" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>441</v>
+      </c>
+      <c r="C216" t="s">
+        <v>363</v>
+      </c>
+      <c r="D216" t="s">
+        <v>558</v>
+      </c>
+      <c r="E216" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>441</v>
+      </c>
+      <c r="C217" t="s">
+        <v>364</v>
+      </c>
+      <c r="D217" t="s">
+        <v>559</v>
+      </c>
+      <c r="E217" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>441</v>
+      </c>
+      <c r="C218" t="s">
+        <v>365</v>
+      </c>
+      <c r="D218" t="s">
+        <v>560</v>
+      </c>
+      <c r="E218" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
+        <v>441</v>
+      </c>
+      <c r="C219" t="s">
+        <v>366</v>
+      </c>
+      <c r="D219" t="s">
+        <v>561</v>
+      </c>
+      <c r="E219" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220" t="s">
+        <v>441</v>
+      </c>
+      <c r="C220" t="s">
+        <v>367</v>
+      </c>
+      <c r="D220" t="s">
+        <v>562</v>
+      </c>
+      <c r="E220" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
+        <v>441</v>
+      </c>
+      <c r="C221" t="s">
+        <v>368</v>
+      </c>
+      <c r="D221" t="s">
+        <v>563</v>
+      </c>
+      <c r="E221" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>441</v>
+      </c>
+      <c r="C222" t="s">
+        <v>369</v>
+      </c>
+      <c r="D222" t="s">
+        <v>564</v>
+      </c>
+      <c r="E222" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223" t="s">
+        <v>441</v>
+      </c>
+      <c r="C223" t="s">
+        <v>370</v>
+      </c>
+      <c r="D223" t="s">
+        <v>565</v>
+      </c>
+      <c r="E223" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224" t="s">
+        <v>441</v>
+      </c>
+      <c r="C224" t="s">
+        <v>371</v>
+      </c>
+      <c r="D224" t="s">
+        <v>654</v>
+      </c>
+      <c r="E224" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225" t="s">
+        <v>441</v>
+      </c>
+      <c r="C225" t="s">
+        <v>372</v>
+      </c>
+      <c r="D225" t="s">
+        <v>655</v>
+      </c>
+      <c r="E225" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226" t="s">
+        <v>441</v>
+      </c>
+      <c r="C226" t="s">
+        <v>373</v>
+      </c>
+      <c r="D226" t="s">
+        <v>656</v>
+      </c>
+      <c r="E226" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227" t="s">
+        <v>441</v>
+      </c>
+      <c r="C227" t="s">
+        <v>374</v>
+      </c>
+      <c r="D227" t="s">
+        <v>657</v>
+      </c>
+      <c r="E227" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228" t="s">
+        <v>441</v>
+      </c>
+      <c r="C228" t="s">
+        <v>375</v>
+      </c>
+      <c r="D228" t="s">
+        <v>658</v>
+      </c>
+      <c r="E228" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229" t="s">
+        <v>441</v>
+      </c>
+      <c r="C229" t="s">
+        <v>376</v>
+      </c>
+      <c r="D229" t="s">
+        <v>659</v>
+      </c>
+      <c r="E229" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230" t="s">
+        <v>441</v>
+      </c>
+      <c r="C230" t="s">
+        <v>377</v>
+      </c>
+      <c r="D230" t="s">
+        <v>660</v>
+      </c>
+      <c r="E230" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231" t="s">
+        <v>441</v>
+      </c>
+      <c r="C231" t="s">
+        <v>378</v>
+      </c>
+      <c r="D231" t="s">
+        <v>661</v>
+      </c>
+      <c r="E231" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232" t="s">
+        <v>441</v>
+      </c>
+      <c r="C232" t="s">
+        <v>379</v>
+      </c>
+      <c r="D232" t="s">
+        <v>662</v>
+      </c>
+      <c r="E232" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233" t="s">
+        <v>441</v>
+      </c>
+      <c r="C233" t="s">
+        <v>380</v>
+      </c>
+      <c r="D233" t="s">
+        <v>663</v>
+      </c>
+      <c r="E233" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
+        <v>441</v>
+      </c>
+      <c r="C234" t="s">
+        <v>381</v>
+      </c>
+      <c r="D234" t="s">
+        <v>664</v>
+      </c>
+      <c r="E234" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
+        <v>441</v>
+      </c>
+      <c r="C235" t="s">
+        <v>382</v>
+      </c>
+      <c r="D235" t="s">
+        <v>665</v>
+      </c>
+      <c r="E235" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
+        <v>441</v>
+      </c>
+      <c r="C236" t="s">
+        <v>383</v>
+      </c>
+      <c r="D236" t="s">
+        <v>629</v>
+      </c>
+      <c r="E236" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
+        <v>441</v>
+      </c>
+      <c r="C237" t="s">
+        <v>384</v>
+      </c>
+      <c r="D237" t="s">
+        <v>666</v>
+      </c>
+      <c r="E237" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>441</v>
+      </c>
+      <c r="C238" t="s">
+        <v>385</v>
+      </c>
+      <c r="D238" t="s">
+        <v>667</v>
+      </c>
+      <c r="E238" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239" t="s">
+        <v>441</v>
+      </c>
+      <c r="C239" t="s">
+        <v>386</v>
+      </c>
+      <c r="D239" t="s">
+        <v>668</v>
+      </c>
+      <c r="E239" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240" t="s">
+        <v>441</v>
+      </c>
+      <c r="C240" t="s">
+        <v>387</v>
+      </c>
+      <c r="D240" t="s">
+        <v>669</v>
+      </c>
+      <c r="E240" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241" t="s">
+        <v>441</v>
+      </c>
+      <c r="C241" t="s">
+        <v>388</v>
+      </c>
+      <c r="D241" t="s">
+        <v>670</v>
+      </c>
+      <c r="E241" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242" t="s">
+        <v>441</v>
+      </c>
+      <c r="C242" t="s">
+        <v>389</v>
+      </c>
+      <c r="D242" t="s">
+        <v>700</v>
+      </c>
+      <c r="E242" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243" t="s">
+        <v>441</v>
+      </c>
+      <c r="C243" t="s">
+        <v>390</v>
+      </c>
+      <c r="D243" t="s">
+        <v>701</v>
+      </c>
+      <c r="E243" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244" t="s">
+        <v>441</v>
+      </c>
+      <c r="C244" t="s">
+        <v>391</v>
+      </c>
+      <c r="D244" t="s">
+        <v>702</v>
+      </c>
+      <c r="E244" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245" t="s">
+        <v>441</v>
+      </c>
+      <c r="C245" t="s">
+        <v>392</v>
+      </c>
+      <c r="D245" t="s">
+        <v>703</v>
+      </c>
+      <c r="E245" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246" t="s">
+        <v>442</v>
+      </c>
+      <c r="C246" t="s">
+        <v>393</v>
+      </c>
+      <c r="D246" t="s">
+        <v>566</v>
+      </c>
+      <c r="E246" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247" t="s">
+        <v>442</v>
+      </c>
+      <c r="C247" t="s">
+        <v>394</v>
+      </c>
+      <c r="D247" t="s">
+        <v>567</v>
+      </c>
+      <c r="E247" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248" t="s">
+        <v>442</v>
+      </c>
+      <c r="C248" t="s">
+        <v>395</v>
+      </c>
+      <c r="D248" t="s">
+        <v>494</v>
+      </c>
+      <c r="E248" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249" t="s">
+        <v>442</v>
+      </c>
+      <c r="C249" t="s">
+        <v>396</v>
+      </c>
+      <c r="D249" t="s">
+        <v>568</v>
+      </c>
+      <c r="E249" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250" t="s">
+        <v>442</v>
+      </c>
+      <c r="C250" t="s">
+        <v>397</v>
+      </c>
+      <c r="D250" t="s">
+        <v>569</v>
+      </c>
+      <c r="E250" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251" t="s">
+        <v>442</v>
+      </c>
+      <c r="C251" t="s">
+        <v>398</v>
+      </c>
+      <c r="D251" t="s">
+        <v>570</v>
+      </c>
+      <c r="E251" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252" t="s">
+        <v>442</v>
+      </c>
+      <c r="C252" t="s">
+        <v>399</v>
+      </c>
+      <c r="D252" t="s">
+        <v>571</v>
+      </c>
+      <c r="E252" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="B253" t="s">
+        <v>442</v>
+      </c>
+      <c r="C253" t="s">
+        <v>400</v>
+      </c>
+      <c r="D253" t="s">
+        <v>572</v>
+      </c>
+      <c r="E253" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="B254" t="s">
+        <v>442</v>
+      </c>
+      <c r="C254" t="s">
+        <v>401</v>
+      </c>
+      <c r="D254" t="s">
+        <v>573</v>
+      </c>
+      <c r="E254" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255" t="s">
+        <v>442</v>
+      </c>
+      <c r="C255" t="s">
+        <v>402</v>
+      </c>
+      <c r="D255" t="s">
+        <v>574</v>
+      </c>
+      <c r="E255" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256" t="s">
+        <v>442</v>
+      </c>
+      <c r="C256" t="s">
+        <v>403</v>
+      </c>
+      <c r="D256" t="s">
+        <v>575</v>
+      </c>
+      <c r="E256" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="B257" t="s">
+        <v>442</v>
+      </c>
+      <c r="C257" t="s">
+        <v>404</v>
+      </c>
+      <c r="D257" t="s">
+        <v>576</v>
+      </c>
+      <c r="E257" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="B258" t="s">
+        <v>442</v>
+      </c>
+      <c r="C258" t="s">
+        <v>405</v>
+      </c>
+      <c r="D258" t="s">
+        <v>577</v>
+      </c>
+      <c r="E258" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259" t="s">
+        <v>442</v>
+      </c>
+      <c r="C259" t="s">
+        <v>406</v>
+      </c>
+      <c r="D259" t="s">
+        <v>578</v>
+      </c>
+      <c r="E259" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="B260" t="s">
+        <v>442</v>
+      </c>
+      <c r="C260" t="s">
+        <v>407</v>
+      </c>
+      <c r="D260" t="s">
+        <v>579</v>
+      </c>
+      <c r="E260" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="B261" t="s">
+        <v>442</v>
+      </c>
+      <c r="C261" t="s">
+        <v>408</v>
+      </c>
+      <c r="D261" t="s">
+        <v>580</v>
+      </c>
+      <c r="E261" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>261</v>
+      </c>
+      <c r="B262" t="s">
+        <v>442</v>
+      </c>
+      <c r="C262" t="s">
+        <v>409</v>
+      </c>
+      <c r="D262" t="s">
+        <v>581</v>
+      </c>
+      <c r="E262" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>262</v>
+      </c>
+      <c r="B263" t="s">
+        <v>442</v>
+      </c>
+      <c r="C263" t="s">
+        <v>410</v>
+      </c>
+      <c r="D263" t="s">
+        <v>582</v>
+      </c>
+      <c r="E263" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>263</v>
+      </c>
+      <c r="B264" t="s">
+        <v>442</v>
+      </c>
+      <c r="C264" t="s">
+        <v>411</v>
+      </c>
+      <c r="D264" t="s">
+        <v>582</v>
+      </c>
+      <c r="E264" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>264</v>
+      </c>
+      <c r="B265" t="s">
+        <v>442</v>
+      </c>
+      <c r="C265" t="s">
+        <v>412</v>
+      </c>
+      <c r="D265" t="s">
+        <v>583</v>
+      </c>
+      <c r="E265" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>265</v>
+      </c>
+      <c r="B266" t="s">
+        <v>442</v>
+      </c>
+      <c r="C266" t="s">
+        <v>413</v>
+      </c>
+      <c r="D266" t="s">
+        <v>583</v>
+      </c>
+      <c r="E266" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>266</v>
+      </c>
+      <c r="B267" t="s">
+        <v>442</v>
+      </c>
+      <c r="C267" t="s">
+        <v>414</v>
+      </c>
+      <c r="D267" t="s">
+        <v>584</v>
+      </c>
+      <c r="E267" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>267</v>
+      </c>
+      <c r="B268" t="s">
+        <v>442</v>
+      </c>
+      <c r="C268" t="s">
+        <v>415</v>
+      </c>
+      <c r="D268" t="s">
+        <v>585</v>
+      </c>
+      <c r="E268" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>268</v>
+      </c>
+      <c r="B269" t="s">
+        <v>442</v>
+      </c>
+      <c r="C269" t="s">
+        <v>416</v>
+      </c>
+      <c r="D269" t="s">
+        <v>586</v>
+      </c>
+      <c r="E269" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>269</v>
+      </c>
+      <c r="B270" t="s">
+        <v>442</v>
+      </c>
+      <c r="C270" t="s">
+        <v>417</v>
+      </c>
+      <c r="D270" t="s">
+        <v>587</v>
+      </c>
+      <c r="E270" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>270</v>
+      </c>
+      <c r="B271" t="s">
+        <v>442</v>
+      </c>
+      <c r="C271" t="s">
+        <v>418</v>
+      </c>
+      <c r="D271" t="s">
+        <v>588</v>
+      </c>
+      <c r="E271" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>271</v>
+      </c>
+      <c r="B272" t="s">
+        <v>442</v>
+      </c>
+      <c r="C272" t="s">
+        <v>419</v>
+      </c>
+      <c r="D272" t="s">
+        <v>589</v>
+      </c>
+      <c r="E272" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>272</v>
+      </c>
+      <c r="B273" t="s">
+        <v>442</v>
+      </c>
+      <c r="C273" t="s">
+        <v>420</v>
+      </c>
+      <c r="D273" t="s">
+        <v>671</v>
+      </c>
+      <c r="E273" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>273</v>
+      </c>
+      <c r="B274" t="s">
+        <v>442</v>
+      </c>
+      <c r="C274" t="s">
+        <v>421</v>
+      </c>
+      <c r="D274" t="s">
+        <v>672</v>
+      </c>
+      <c r="E274" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>274</v>
+      </c>
+      <c r="B275" t="s">
+        <v>442</v>
+      </c>
+      <c r="C275" t="s">
+        <v>422</v>
+      </c>
+      <c r="D275" t="s">
+        <v>673</v>
+      </c>
+      <c r="E275" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>275</v>
+      </c>
+      <c r="B276" t="s">
+        <v>442</v>
+      </c>
+      <c r="C276" t="s">
+        <v>423</v>
+      </c>
+      <c r="D276" t="s">
+        <v>674</v>
+      </c>
+      <c r="E276" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>276</v>
+      </c>
+      <c r="B277" t="s">
+        <v>442</v>
+      </c>
+      <c r="C277" t="s">
+        <v>424</v>
+      </c>
+      <c r="D277" t="s">
+        <v>675</v>
+      </c>
+      <c r="E277" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>277</v>
+      </c>
+      <c r="B278" t="s">
+        <v>442</v>
+      </c>
+      <c r="C278" t="s">
+        <v>425</v>
+      </c>
+      <c r="D278" t="s">
+        <v>676</v>
+      </c>
+      <c r="E278" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>278</v>
+      </c>
+      <c r="B279" t="s">
+        <v>442</v>
+      </c>
+      <c r="C279" t="s">
+        <v>426</v>
+      </c>
+      <c r="D279" t="s">
+        <v>677</v>
+      </c>
+      <c r="E279" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>279</v>
+      </c>
+      <c r="B280" t="s">
+        <v>442</v>
+      </c>
+      <c r="C280" t="s">
+        <v>427</v>
+      </c>
+      <c r="D280" t="s">
+        <v>704</v>
+      </c>
+      <c r="E280" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>280</v>
+      </c>
+      <c r="B281" t="s">
+        <v>442</v>
+      </c>
+      <c r="C281" t="s">
+        <v>428</v>
+      </c>
+      <c r="D281" t="s">
+        <v>705</v>
+      </c>
+      <c r="E281" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>281</v>
+      </c>
+      <c r="B282" t="s">
+        <v>442</v>
+      </c>
+      <c r="C282" t="s">
+        <v>429</v>
+      </c>
+      <c r="D282" t="s">
+        <v>706</v>
+      </c>
+      <c r="E282" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>282</v>
+      </c>
+      <c r="B283" t="s">
+        <v>442</v>
+      </c>
+      <c r="C283" t="s">
+        <v>430</v>
+      </c>
+      <c r="D283" t="s">
+        <v>707</v>
+      </c>
+      <c r="E283" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>283</v>
+      </c>
+      <c r="B284" t="s">
+        <v>442</v>
+      </c>
+      <c r="C284" t="s">
+        <v>431</v>
+      </c>
+      <c r="D284" t="s">
+        <v>708</v>
+      </c>
+      <c r="E284" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>284</v>
+      </c>
+      <c r="B285" t="s">
+        <v>442</v>
+      </c>
+      <c r="C285" t="s">
+        <v>432</v>
+      </c>
+      <c r="D285" t="s">
+        <v>709</v>
+      </c>
+      <c r="E285" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>285</v>
+      </c>
+      <c r="B286" t="s">
+        <v>442</v>
+      </c>
+      <c r="C286" t="s">
+        <v>433</v>
+      </c>
+      <c r="D286" t="s">
+        <v>710</v>
+      </c>
+      <c r="E286" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100EB04A42EC1A26F4FBB63D166FC5B970D" ma:contentTypeVersion="18" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="239dad6c5680f2618a3beaced7d7cca6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e272a2e4-4bdf-4402-86c1-14e941d15658" xmlns:ns4="d4db9376-2a30-4459-9193-cfeb797d1955" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5ecfe34017f2e154931bc78fb9fcd0a2" ns3:_="" ns4:_="">
     <xsd:import namespace="e272a2e4-4bdf-4402-86c1-14e941d15658"/>
@@ -1463,10 +9499,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="e272a2e4-4bdf-4402-86c1-14e941d15658" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67B5AAE4-66A7-4C08-B099-49C1C4975ADD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89FDF4BC-CCAE-4FF5-92C8-A45E4D33E3D1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e272a2e4-4bdf-4402-86c1-14e941d15658"/>
+    <ds:schemaRef ds:uri="d4db9376-2a30-4459-9193-cfeb797d1955"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1489,20 +9553,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89FDF4BC-CCAE-4FF5-92C8-A45E4D33E3D1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67B5AAE4-66A7-4C08-B099-49C1C4975ADD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e272a2e4-4bdf-4402-86c1-14e941d15658"/>
-    <ds:schemaRef ds:uri="d4db9376-2a30-4459-9193-cfeb797d1955"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/raw/Drugs.xlsx
+++ b/data/raw/Drugs.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albacortes\Desktop\UPM\TFG\TFG\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2795CBBB-8E27-4D8C-905B-B694EEDB5AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1993E24C-D78A-4222-907B-1E7B51C03658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{20E1C3B8-4C1D-44BF-A8FA-3BA5F597D8F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{20E1C3B8-4C1D-44BF-A8FA-3BA5F597D8F8}"/>
   </bookViews>
   <sheets>
     <sheet name="drug_keyword" sheetId="1" r:id="rId1"/>
     <sheet name="drug" sheetId="2" r:id="rId2"/>
     <sheet name="slang" sheetId="3" r:id="rId3"/>
-    <sheet name="metamap" sheetId="4" r:id="rId4"/>
+    <sheet name="match_slang" sheetId="5" r:id="rId4"/>
+    <sheet name="metamap" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="758">
   <si>
     <t>id</t>
   </si>
@@ -2181,6 +2182,138 @@
   </si>
   <si>
     <t>["sleep"]</t>
+  </si>
+  <si>
+    <t>annotation1</t>
+  </si>
+  <si>
+    <t>annotation2</t>
+  </si>
+  <si>
+    <t>annotation3</t>
+  </si>
+  <si>
+    <t>neutro</t>
+  </si>
+  <si>
+    <t>enegativopuddle</t>
+  </si>
+  <si>
+    <t>enegativotard</t>
+  </si>
+  <si>
+    <t>anxious</t>
+  </si>
+  <si>
+    <t>blotting paper</t>
+  </si>
+  <si>
+    <t>chemicals</t>
+  </si>
+  <si>
+    <t>chewed</t>
+  </si>
+  <si>
+    <t>chewing</t>
+  </si>
+  <si>
+    <t>consuming</t>
+  </si>
+  <si>
+    <t>depressed</t>
+  </si>
+  <si>
+    <t>depressive</t>
+  </si>
+  <si>
+    <t>deshinibition</t>
+  </si>
+  <si>
+    <t>drop in blod pressure</t>
+  </si>
+  <si>
+    <t>drugs</t>
+  </si>
+  <si>
+    <t>flipping</t>
+  </si>
+  <si>
+    <t>improved communication</t>
+  </si>
+  <si>
+    <t>ingested</t>
+  </si>
+  <si>
+    <t>ingesting</t>
+  </si>
+  <si>
+    <t>inhaled</t>
+  </si>
+  <si>
+    <t>inhaling</t>
+  </si>
+  <si>
+    <t>injected</t>
+  </si>
+  <si>
+    <t>injecting</t>
+  </si>
+  <si>
+    <t>lines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">music-drug conection </t>
+  </si>
+  <si>
+    <t>paranoid</t>
+  </si>
+  <si>
+    <t>pills</t>
+  </si>
+  <si>
+    <t>raving</t>
+  </si>
+  <si>
+    <t>rolling</t>
+  </si>
+  <si>
+    <t>sexual difficult</t>
+  </si>
+  <si>
+    <t>smoked</t>
+  </si>
+  <si>
+    <t>smoking</t>
+  </si>
+  <si>
+    <t>snorted</t>
+  </si>
+  <si>
+    <t>snorting</t>
+  </si>
+  <si>
+    <t>substances</t>
+  </si>
+  <si>
+    <t>taking</t>
+  </si>
+  <si>
+    <t>vaped</t>
+  </si>
+  <si>
+    <t>vaping</t>
+  </si>
+  <si>
+    <t>vaporized</t>
+  </si>
+  <si>
+    <t>vaporizing</t>
+  </si>
+  <si>
+    <t>vomited</t>
+  </si>
+  <si>
+    <t>vomiting</t>
   </si>
 </sst>
 </file>
@@ -2233,7 +2366,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2248,6 +2381,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -3179,14 +3315,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A68738-DF46-4C50-94F7-5A6A15D91A39}">
   <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.44140625" customWidth="1"/>
     <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -3196,11 +3333,15 @@
       <c r="B1" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="C1" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>716</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
@@ -3212,8 +3353,12 @@
       <c r="C2" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -3225,8 +3370,12 @@
       <c r="C3" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -3238,8 +3387,12 @@
       <c r="C4" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -3251,8 +3404,12 @@
       <c r="C5" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -3264,8 +3421,12 @@
       <c r="C6" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -3277,8 +3438,12 @@
       <c r="C7" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -3290,8 +3455,12 @@
       <c r="C8" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -3303,8 +3472,12 @@
       <c r="C9" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -3316,8 +3489,12 @@
       <c r="C10" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -3329,8 +3506,12 @@
       <c r="C11" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -3342,8 +3523,12 @@
       <c r="C12" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -3355,8 +3540,12 @@
       <c r="C13" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -3368,8 +3557,12 @@
       <c r="C14" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -3381,8 +3574,12 @@
       <c r="C15" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -3394,8 +3591,12 @@
       <c r="C16" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -3407,8 +3608,12 @@
       <c r="C17" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -3420,8 +3625,12 @@
       <c r="C18" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -3433,8 +3642,12 @@
       <c r="C19" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
@@ -3446,8 +3659,12 @@
       <c r="C20" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
@@ -3459,8 +3676,12 @@
       <c r="C21" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
@@ -3472,8 +3693,12 @@
       <c r="C22" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
@@ -3485,34 +3710,46 @@
       <c r="C23" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>75</v>
+        <v>718</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>76</v>
+        <v>719</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
@@ -3524,8 +3761,12 @@
       <c r="C26" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
@@ -3537,8 +3778,12 @@
       <c r="C27" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
@@ -3550,8 +3795,12 @@
       <c r="C28" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
@@ -3563,8 +3812,12 @@
       <c r="C29" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
@@ -3576,8 +3829,12 @@
       <c r="C30" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
@@ -3589,8 +3846,12 @@
       <c r="C31" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
@@ -3602,8 +3863,12 @@
       <c r="C32" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
@@ -3613,10 +3878,14 @@
         <v>84</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+        <v>144</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
@@ -3628,8 +3897,12 @@
       <c r="C34" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
@@ -3641,8 +3914,12 @@
       <c r="C35" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
@@ -3654,8 +3931,12 @@
       <c r="C36" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
@@ -3667,8 +3948,12 @@
       <c r="C37" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
@@ -3680,8 +3965,12 @@
       <c r="C38" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
@@ -3693,8 +3982,12 @@
       <c r="C39" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
@@ -3706,8 +3999,12 @@
       <c r="C40" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
@@ -3719,8 +4016,12 @@
       <c r="C41" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
@@ -3732,8 +4033,12 @@
       <c r="C42" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
@@ -3743,10 +4048,14 @@
         <v>94</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+        <v>145</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
@@ -3758,8 +4067,12 @@
       <c r="C44" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
@@ -3771,8 +4084,12 @@
       <c r="C45" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
@@ -3784,8 +4101,12 @@
       <c r="C46" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
@@ -3797,8 +4118,12 @@
       <c r="C47" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
@@ -3810,8 +4135,12 @@
       <c r="C48" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
+      <c r="D48" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
@@ -3823,8 +4152,12 @@
       <c r="C49" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
+      <c r="D49" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
@@ -3836,8 +4169,12 @@
       <c r="C50" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
+      <c r="D50" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
@@ -3849,8 +4186,12 @@
       <c r="C51" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
+      <c r="D51" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
@@ -3862,8 +4203,12 @@
       <c r="C52" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
+      <c r="D52" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
@@ -3875,8 +4220,12 @@
       <c r="C53" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
+      <c r="D53" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
@@ -3888,8 +4237,12 @@
       <c r="C54" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
+      <c r="D54" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
@@ -3899,10 +4252,14 @@
         <v>106</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
+        <v>145</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
@@ -3914,8 +4271,12 @@
       <c r="C56" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
@@ -3927,8 +4288,12 @@
       <c r="C57" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
+      <c r="D57" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
@@ -3940,8 +4305,12 @@
       <c r="C58" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
+      <c r="D58" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
@@ -3953,8 +4322,12 @@
       <c r="C59" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
+      <c r="D59" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
@@ -3966,8 +4339,12 @@
       <c r="C60" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
+      <c r="D60" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
@@ -3979,8 +4356,12 @@
       <c r="C61" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
+      <c r="D61" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
@@ -3992,8 +4373,12 @@
       <c r="C62" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
+      <c r="D62" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
@@ -4005,8 +4390,12 @@
       <c r="C63" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
+      <c r="D63" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
@@ -4018,8 +4407,12 @@
       <c r="C64" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
+      <c r="D64" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
@@ -4031,8 +4424,12 @@
       <c r="C65" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
+      <c r="D65" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
@@ -4044,8 +4441,12 @@
       <c r="C66" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
+      <c r="D66" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
@@ -4057,8 +4458,12 @@
       <c r="C67" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
+      <c r="D67" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
@@ -4070,8 +4475,12 @@
       <c r="C68" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
+      <c r="D68" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
@@ -4081,10 +4490,14 @@
         <v>120</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
+        <v>145</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
@@ -4096,8 +4509,12 @@
       <c r="C70" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
+      <c r="D70" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
@@ -4109,8 +4526,12 @@
       <c r="C71" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
+      <c r="D71" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
@@ -4122,8 +4543,12 @@
       <c r="C72" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
+      <c r="D72" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
@@ -4135,8 +4560,12 @@
       <c r="C73" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
+      <c r="D73" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
@@ -4148,8 +4577,12 @@
       <c r="C74" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
+      <c r="D74" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
@@ -4161,8 +4594,12 @@
       <c r="C75" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
+      <c r="D75" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
@@ -4174,8 +4611,12 @@
       <c r="C76" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
+      <c r="D76" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
@@ -4187,8 +4628,12 @@
       <c r="C77" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
+      <c r="D77" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
@@ -4200,8 +4645,12 @@
       <c r="C78" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
+      <c r="D78" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
@@ -4213,8 +4662,12 @@
       <c r="C79" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
+      <c r="D79" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
@@ -4224,10 +4677,14 @@
         <v>131</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
+        <v>145</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
@@ -4239,8 +4696,12 @@
       <c r="C81" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
+      <c r="D81" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
@@ -4252,8 +4713,12 @@
       <c r="C82" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
+      <c r="D82" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
@@ -4265,8 +4730,12 @@
       <c r="C83" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
+      <c r="D83" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
@@ -4278,8 +4747,12 @@
       <c r="C84" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
+      <c r="D84" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
@@ -4291,8 +4764,12 @@
       <c r="C85" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
+      <c r="D85" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
@@ -4304,8 +4781,12 @@
       <c r="C86" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
+      <c r="D86" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
@@ -4317,8 +4798,12 @@
       <c r="C87" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
+      <c r="D87" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
@@ -4330,8 +4815,12 @@
       <c r="C88" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
+      <c r="D88" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
@@ -4341,10 +4830,14 @@
         <v>140</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
+        <v>144</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
@@ -4356,8 +4849,12 @@
       <c r="C90" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
+      <c r="D90" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4365,6 +4862,1045 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14ABE646-4DE9-48C4-A104-AD51B63E37A6}">
+  <dimension ref="A1:B128"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B128"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>21</v>
+      </c>
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>22</v>
+      </c>
+      <c r="B31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>23</v>
+      </c>
+      <c r="B32" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>24</v>
+      </c>
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>24</v>
+      </c>
+      <c r="B34" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>26</v>
+      </c>
+      <c r="B36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>27</v>
+      </c>
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>28</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>29</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>30</v>
+      </c>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>31</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>31</v>
+      </c>
+      <c r="B42" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>32</v>
+      </c>
+      <c r="B43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>33</v>
+      </c>
+      <c r="B44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>34</v>
+      </c>
+      <c r="B45" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>35</v>
+      </c>
+      <c r="B46" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>36</v>
+      </c>
+      <c r="B47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>37</v>
+      </c>
+      <c r="B48" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>38</v>
+      </c>
+      <c r="B49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>39</v>
+      </c>
+      <c r="B50" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>40</v>
+      </c>
+      <c r="B51" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>40</v>
+      </c>
+      <c r="B52" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>40</v>
+      </c>
+      <c r="B53" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>41</v>
+      </c>
+      <c r="B54" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>41</v>
+      </c>
+      <c r="B55" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>41</v>
+      </c>
+      <c r="B56" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>42</v>
+      </c>
+      <c r="B57" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>42</v>
+      </c>
+      <c r="B58" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>42</v>
+      </c>
+      <c r="B59" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>43</v>
+      </c>
+      <c r="B60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>44</v>
+      </c>
+      <c r="B61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>45</v>
+      </c>
+      <c r="B62" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>46</v>
+      </c>
+      <c r="B63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>47</v>
+      </c>
+      <c r="B64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>48</v>
+      </c>
+      <c r="B65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>48</v>
+      </c>
+      <c r="B66" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>49</v>
+      </c>
+      <c r="B67" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>50</v>
+      </c>
+      <c r="B68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>51</v>
+      </c>
+      <c r="B69" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>52</v>
+      </c>
+      <c r="B70" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>53</v>
+      </c>
+      <c r="B71" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>54</v>
+      </c>
+      <c r="B72" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>55</v>
+      </c>
+      <c r="B73" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>56</v>
+      </c>
+      <c r="B74" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>57</v>
+      </c>
+      <c r="B75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>58</v>
+      </c>
+      <c r="B76" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>59</v>
+      </c>
+      <c r="B77" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>60</v>
+      </c>
+      <c r="B78" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>61</v>
+      </c>
+      <c r="B79" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>61</v>
+      </c>
+      <c r="B80" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>62</v>
+      </c>
+      <c r="B81" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>63</v>
+      </c>
+      <c r="B82" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>63</v>
+      </c>
+      <c r="B83" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>64</v>
+      </c>
+      <c r="B84" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>65</v>
+      </c>
+      <c r="B85" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>66</v>
+      </c>
+      <c r="B86" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>66</v>
+      </c>
+      <c r="B87" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>67</v>
+      </c>
+      <c r="B88" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>68</v>
+      </c>
+      <c r="B89" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>68</v>
+      </c>
+      <c r="B90" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>69</v>
+      </c>
+      <c r="B91" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>70</v>
+      </c>
+      <c r="B92" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>71</v>
+      </c>
+      <c r="B93" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>72</v>
+      </c>
+      <c r="B94" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>73</v>
+      </c>
+      <c r="B95" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>74</v>
+      </c>
+      <c r="B96" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>74</v>
+      </c>
+      <c r="B97" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>74</v>
+      </c>
+      <c r="B98" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>75</v>
+      </c>
+      <c r="B99" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>75</v>
+      </c>
+      <c r="B100" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>75</v>
+      </c>
+      <c r="B101" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>76</v>
+      </c>
+      <c r="B102" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>77</v>
+      </c>
+      <c r="B103" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>78</v>
+      </c>
+      <c r="B104" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>79</v>
+      </c>
+      <c r="B105" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>79</v>
+      </c>
+      <c r="B106" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>80</v>
+      </c>
+      <c r="B107" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>81</v>
+      </c>
+      <c r="B108" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>82</v>
+      </c>
+      <c r="B109" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>82</v>
+      </c>
+      <c r="B110" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>83</v>
+      </c>
+      <c r="B111" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>84</v>
+      </c>
+      <c r="B112" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>85</v>
+      </c>
+      <c r="B113" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>86</v>
+      </c>
+      <c r="B114" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>86</v>
+      </c>
+      <c r="B115" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>86</v>
+      </c>
+      <c r="B116" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>87</v>
+      </c>
+      <c r="B117" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>87</v>
+      </c>
+      <c r="B118" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>87</v>
+      </c>
+      <c r="B119" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>88</v>
+      </c>
+      <c r="B120" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>88</v>
+      </c>
+      <c r="B121" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>88</v>
+      </c>
+      <c r="B122" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>89</v>
+      </c>
+      <c r="B123" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>90</v>
+      </c>
+      <c r="B124" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>91</v>
+      </c>
+      <c r="B125" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>92</v>
+      </c>
+      <c r="B126" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>93</v>
+      </c>
+      <c r="B127" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>94</v>
+      </c>
+      <c r="B128" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50F6F4E2-8F0D-419A-B5E4-8235A9D0F903}">
   <dimension ref="A1:E286"/>
   <sheetViews>
@@ -9247,6 +10783,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="e272a2e4-4bdf-4402-86c1-14e941d15658" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100EB04A42EC1A26F4FBB63D166FC5B970D" ma:contentTypeVersion="18" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="239dad6c5680f2618a3beaced7d7cca6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e272a2e4-4bdf-4402-86c1-14e941d15658" xmlns:ns4="d4db9376-2a30-4459-9193-cfeb797d1955" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5ecfe34017f2e154931bc78fb9fcd0a2" ns3:_="" ns4:_="">
     <xsd:import namespace="e272a2e4-4bdf-4402-86c1-14e941d15658"/>
@@ -9499,38 +11052,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="e272a2e4-4bdf-4402-86c1-14e941d15658" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89FDF4BC-CCAE-4FF5-92C8-A45E4D33E3D1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67B5AAE4-66A7-4C08-B099-49C1C4975ADD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e272a2e4-4bdf-4402-86c1-14e941d15658"/>
-    <ds:schemaRef ds:uri="d4db9376-2a30-4459-9193-cfeb797d1955"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9553,9 +11078,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67B5AAE4-66A7-4C08-B099-49C1C4975ADD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89FDF4BC-CCAE-4FF5-92C8-A45E4D33E3D1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e272a2e4-4bdf-4402-86c1-14e941d15658"/>
+    <ds:schemaRef ds:uri="d4db9376-2a30-4459-9193-cfeb797d1955"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/raw/Drugs.xlsx
+++ b/data/raw/Drugs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albacortes\Desktop\UPM\TFG\TFG\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F231AA6-719C-4C79-BEDB-E0868558553E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DDDD3D-9337-4E43-80E6-9E57590F6856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{20E1C3B8-4C1D-44BF-A8FA-3BA5F597D8F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{20E1C3B8-4C1D-44BF-A8FA-3BA5F597D8F8}"/>
   </bookViews>
   <sheets>
     <sheet name="drug_keyword" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="555">
   <si>
     <t>id</t>
   </si>
@@ -1376,9 +1376,6 @@
   </si>
   <si>
     <t>annotation3</t>
-  </si>
-  <si>
-    <t>neutro</t>
   </si>
   <si>
     <t>enegativopuddle</t>
@@ -1767,7 +1764,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1783,8 +1780,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2716,8 +2711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A68738-DF46-4C50-94F7-5A6A15D91A39}">
   <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2840,7 +2835,7 @@
         <v>145</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>445</v>
+        <v>145</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>145</v>
@@ -3123,7 +3118,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>145</v>
@@ -3140,7 +3135,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>145</v>
@@ -4301,7 +4296,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -4373,7 +4368,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -4397,7 +4392,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -4421,7 +4416,7 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -4429,7 +4424,7 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -4445,7 +4440,7 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -4485,7 +4480,7 @@
         <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -4493,7 +4488,7 @@
         <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -4501,7 +4496,7 @@
         <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -4525,7 +4520,7 @@
         <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -4541,7 +4536,7 @@
         <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -4605,7 +4600,7 @@
         <v>31</v>
       </c>
       <c r="B42" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -4669,7 +4664,7 @@
         <v>39</v>
       </c>
       <c r="B50" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -4685,7 +4680,7 @@
         <v>40</v>
       </c>
       <c r="B52" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -4693,7 +4688,7 @@
         <v>40</v>
       </c>
       <c r="B53" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -4709,7 +4704,7 @@
         <v>41</v>
       </c>
       <c r="B55" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -4717,7 +4712,7 @@
         <v>41</v>
       </c>
       <c r="B56" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -4733,7 +4728,7 @@
         <v>42</v>
       </c>
       <c r="B58" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -4741,7 +4736,7 @@
         <v>42</v>
       </c>
       <c r="B59" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -4797,7 +4792,7 @@
         <v>48</v>
       </c>
       <c r="B66" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -4845,7 +4840,7 @@
         <v>54</v>
       </c>
       <c r="B72" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -4909,7 +4904,7 @@
         <v>61</v>
       </c>
       <c r="B80" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -4933,7 +4928,7 @@
         <v>63</v>
       </c>
       <c r="B83" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -4965,7 +4960,7 @@
         <v>66</v>
       </c>
       <c r="B87" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -4989,7 +4984,7 @@
         <v>68</v>
       </c>
       <c r="B90" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -5013,7 +5008,7 @@
         <v>71</v>
       </c>
       <c r="B93" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -5045,7 +5040,7 @@
         <v>74</v>
       </c>
       <c r="B97" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -5053,7 +5048,7 @@
         <v>74</v>
       </c>
       <c r="B98" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -5069,7 +5064,7 @@
         <v>75</v>
       </c>
       <c r="B100" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -5077,7 +5072,7 @@
         <v>75</v>
       </c>
       <c r="B101" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -5117,7 +5112,7 @@
         <v>79</v>
       </c>
       <c r="B106" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -5149,7 +5144,7 @@
         <v>82</v>
       </c>
       <c r="B110" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -5189,7 +5184,7 @@
         <v>86</v>
       </c>
       <c r="B115" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -5197,7 +5192,7 @@
         <v>86</v>
       </c>
       <c r="B116" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -5213,7 +5208,7 @@
         <v>87</v>
       </c>
       <c r="B118" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -5221,7 +5216,7 @@
         <v>87</v>
       </c>
       <c r="B119" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -5237,7 +5232,7 @@
         <v>88</v>
       </c>
       <c r="B121" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -5245,7 +5240,7 @@
         <v>88</v>
       </c>
       <c r="B122" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -5305,21 +5300,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50F6F4E2-8F0D-419A-B5E4-8235A9D0F903}">
   <dimension ref="A1:D286"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D165" sqref="D165"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="44.109375" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="B1" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>442</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -5333,7 +5327,7 @@
       <c r="A2" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" t="s">
         <v>146</v>
       </c>
       <c r="C2" t="s">
@@ -5347,7 +5341,7 @@
       <c r="A3" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" t="s">
         <v>145</v>
       </c>
       <c r="C3" t="s">
@@ -5361,7 +5355,7 @@
       <c r="A4" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" t="s">
         <v>145</v>
       </c>
       <c r="C4" t="s">
@@ -5375,7 +5369,7 @@
       <c r="A5" t="s">
         <v>151</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" t="s">
         <v>146</v>
       </c>
       <c r="C5" t="s">
@@ -5389,7 +5383,7 @@
       <c r="A6" t="s">
         <v>152</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" t="s">
         <v>144</v>
       </c>
       <c r="C6" t="s">
@@ -5403,7 +5397,7 @@
       <c r="A7" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" t="s">
         <v>145</v>
       </c>
       <c r="C7" t="s">
@@ -5417,7 +5411,7 @@
       <c r="A8" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" t="s">
         <v>145</v>
       </c>
       <c r="C8" t="s">
@@ -5431,7 +5425,7 @@
       <c r="A9" t="s">
         <v>155</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" t="s">
         <v>144</v>
       </c>
       <c r="C9" t="s">
@@ -5445,7 +5439,7 @@
       <c r="A10" t="s">
         <v>156</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" t="s">
         <v>146</v>
       </c>
       <c r="C10" t="s">
@@ -5459,7 +5453,7 @@
       <c r="A11" t="s">
         <v>157</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" t="s">
         <v>144</v>
       </c>
       <c r="C11" t="s">
@@ -5473,7 +5467,7 @@
       <c r="A12" t="s">
         <v>158</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" t="s">
         <v>144</v>
       </c>
       <c r="C12" t="s">
@@ -5487,7 +5481,7 @@
       <c r="A13" t="s">
         <v>159</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" t="s">
         <v>144</v>
       </c>
       <c r="C13" t="s">
@@ -5501,7 +5495,7 @@
       <c r="A14" t="s">
         <v>160</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" t="s">
         <v>144</v>
       </c>
       <c r="C14" t="s">
@@ -5515,7 +5509,7 @@
       <c r="A15" t="s">
         <v>161</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" t="s">
         <v>144</v>
       </c>
       <c r="C15" t="s">
@@ -5529,7 +5523,7 @@
       <c r="A16" t="s">
         <v>162</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" t="s">
         <v>144</v>
       </c>
       <c r="C16" t="s">
@@ -5543,7 +5537,7 @@
       <c r="A17" t="s">
         <v>163</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" t="s">
         <v>146</v>
       </c>
       <c r="C17" t="s">
@@ -5557,7 +5551,7 @@
       <c r="A18" t="s">
         <v>164</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" t="s">
         <v>146</v>
       </c>
       <c r="C18" t="s">
@@ -5571,7 +5565,7 @@
       <c r="A19" t="s">
         <v>165</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" t="s">
         <v>145</v>
       </c>
       <c r="C19" t="s">
@@ -5585,7 +5579,7 @@
       <c r="A20" t="s">
         <v>166</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" t="s">
         <v>145</v>
       </c>
       <c r="C20" t="s">
@@ -5599,7 +5593,7 @@
       <c r="A21" t="s">
         <v>167</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" t="s">
         <v>145</v>
       </c>
       <c r="C21" t="s">
@@ -5613,7 +5607,7 @@
       <c r="A22" t="s">
         <v>168</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" t="s">
         <v>144</v>
       </c>
       <c r="C22" t="s">
@@ -5627,7 +5621,7 @@
       <c r="A23" t="s">
         <v>169</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" t="s">
         <v>146</v>
       </c>
       <c r="C23" t="s">
@@ -5641,7 +5635,7 @@
       <c r="A24" t="s">
         <v>170</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" t="s">
         <v>145</v>
       </c>
       <c r="C24" t="s">
@@ -5655,7 +5649,7 @@
       <c r="A25" t="s">
         <v>171</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" t="s">
         <v>145</v>
       </c>
       <c r="C25" t="s">
@@ -5669,7 +5663,7 @@
       <c r="A26" t="s">
         <v>172</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" t="s">
         <v>145</v>
       </c>
       <c r="C26" t="s">
@@ -5683,7 +5677,7 @@
       <c r="A27" t="s">
         <v>173</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" t="s">
         <v>145</v>
       </c>
       <c r="C27" t="s">
@@ -5697,7 +5691,7 @@
       <c r="A28" t="s">
         <v>174</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" t="s">
         <v>145</v>
       </c>
       <c r="C28" t="s">
@@ -5711,7 +5705,7 @@
       <c r="A29" t="s">
         <v>175</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" t="s">
         <v>144</v>
       </c>
       <c r="C29" t="s">
@@ -5725,7 +5719,7 @@
       <c r="A30" t="s">
         <v>176</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" t="s">
         <v>145</v>
       </c>
       <c r="C30" t="s">
@@ -5739,7 +5733,7 @@
       <c r="A31" t="s">
         <v>177</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" t="s">
         <v>145</v>
       </c>
       <c r="C31" t="s">
@@ -5753,7 +5747,7 @@
       <c r="A32" t="s">
         <v>178</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" t="s">
         <v>144</v>
       </c>
       <c r="C32" t="s">
@@ -5767,7 +5761,7 @@
       <c r="A33" t="s">
         <v>179</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" t="s">
         <v>145</v>
       </c>
       <c r="C33" t="s">
@@ -5781,7 +5775,7 @@
       <c r="A34" t="s">
         <v>180</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" t="s">
         <v>145</v>
       </c>
       <c r="C34" t="s">
@@ -5795,7 +5789,7 @@
       <c r="A35" t="s">
         <v>181</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" t="s">
         <v>145</v>
       </c>
       <c r="C35" t="s">
@@ -5809,7 +5803,7 @@
       <c r="A36" t="s">
         <v>182</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" t="s">
         <v>145</v>
       </c>
       <c r="C36" t="s">
@@ -5823,7 +5817,7 @@
       <c r="A37" t="s">
         <v>183</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" t="s">
         <v>144</v>
       </c>
       <c r="C37" t="s">
@@ -5837,7 +5831,7 @@
       <c r="A38" t="s">
         <v>184</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" t="s">
         <v>144</v>
       </c>
       <c r="C38" t="s">
@@ -5851,7 +5845,7 @@
       <c r="A39" t="s">
         <v>185</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" t="s">
         <v>145</v>
       </c>
       <c r="C39" t="s">
@@ -5865,7 +5859,7 @@
       <c r="A40" t="s">
         <v>186</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" t="s">
         <v>145</v>
       </c>
       <c r="C40" t="s">
@@ -5879,7 +5873,7 @@
       <c r="A41" t="s">
         <v>187</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" t="s">
         <v>145</v>
       </c>
       <c r="C41" t="s">
@@ -5893,7 +5887,7 @@
       <c r="A42" t="s">
         <v>188</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" t="s">
         <v>145</v>
       </c>
       <c r="C42" t="s">
@@ -5907,7 +5901,7 @@
       <c r="A43" t="s">
         <v>189</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" t="s">
         <v>146</v>
       </c>
       <c r="C43" t="s">
@@ -5921,7 +5915,7 @@
       <c r="A44" t="s">
         <v>190</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" t="s">
         <v>145</v>
       </c>
       <c r="C44" t="s">
@@ -5935,7 +5929,7 @@
       <c r="A45" t="s">
         <v>191</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" t="s">
         <v>146</v>
       </c>
       <c r="C45" t="s">
@@ -5949,7 +5943,7 @@
       <c r="A46" t="s">
         <v>192</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" t="s">
         <v>145</v>
       </c>
       <c r="C46" t="s">
@@ -5963,7 +5957,7 @@
       <c r="A47" t="s">
         <v>193</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" t="s">
         <v>145</v>
       </c>
       <c r="C47" t="s">
@@ -5977,7 +5971,7 @@
       <c r="A48" t="s">
         <v>194</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" t="s">
         <v>144</v>
       </c>
       <c r="C48" t="s">
@@ -5991,7 +5985,7 @@
       <c r="A49" t="s">
         <v>195</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" t="s">
         <v>146</v>
       </c>
       <c r="C49" t="s">
@@ -6005,7 +5999,7 @@
       <c r="A50" t="s">
         <v>196</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" t="s">
         <v>144</v>
       </c>
       <c r="C50" t="s">
@@ -6019,7 +6013,7 @@
       <c r="A51" t="s">
         <v>197</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" t="s">
         <v>145</v>
       </c>
       <c r="C51" t="s">
@@ -6033,7 +6027,7 @@
       <c r="A52" t="s">
         <v>198</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" t="s">
         <v>145</v>
       </c>
       <c r="C52" t="s">
@@ -6047,7 +6041,7 @@
       <c r="A53" t="s">
         <v>199</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" t="s">
         <v>144</v>
       </c>
       <c r="C53" t="s">
@@ -6061,7 +6055,7 @@
       <c r="A54" t="s">
         <v>200</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" t="s">
         <v>145</v>
       </c>
       <c r="C54" t="s">
@@ -6075,7 +6069,7 @@
       <c r="A55" t="s">
         <v>201</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" t="s">
         <v>145</v>
       </c>
       <c r="C55" t="s">
@@ -6089,7 +6083,7 @@
       <c r="A56" t="s">
         <v>202</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" t="s">
         <v>145</v>
       </c>
       <c r="C56" t="s">
@@ -6103,7 +6097,7 @@
       <c r="A57" t="s">
         <v>203</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" t="s">
         <v>145</v>
       </c>
       <c r="C57" t="s">
@@ -6117,7 +6111,7 @@
       <c r="A58" t="s">
         <v>204</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" t="s">
         <v>145</v>
       </c>
       <c r="C58" t="s">
@@ -6131,7 +6125,7 @@
       <c r="A59" t="s">
         <v>205</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" t="s">
         <v>146</v>
       </c>
       <c r="C59" t="s">
@@ -6145,7 +6139,7 @@
       <c r="A60" t="s">
         <v>206</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" t="s">
         <v>145</v>
       </c>
       <c r="C60" t="s">
@@ -6159,7 +6153,7 @@
       <c r="A61" t="s">
         <v>207</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" t="s">
         <v>144</v>
       </c>
       <c r="C61" t="s">
@@ -6173,7 +6167,7 @@
       <c r="A62" t="s">
         <v>208</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" t="s">
         <v>145</v>
       </c>
       <c r="C62" t="s">
@@ -6187,7 +6181,7 @@
       <c r="A63" t="s">
         <v>209</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" t="s">
         <v>145</v>
       </c>
       <c r="C63" t="s">
@@ -6201,7 +6195,7 @@
       <c r="A64" t="s">
         <v>210</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" t="s">
         <v>145</v>
       </c>
       <c r="C64" t="s">
@@ -6215,7 +6209,7 @@
       <c r="A65" t="s">
         <v>211</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" t="s">
         <v>146</v>
       </c>
       <c r="C65" t="s">
@@ -6229,7 +6223,7 @@
       <c r="A66" t="s">
         <v>212</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" t="s">
         <v>146</v>
       </c>
       <c r="C66" t="s">
@@ -6243,7 +6237,7 @@
       <c r="A67" t="s">
         <v>213</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" t="s">
         <v>145</v>
       </c>
       <c r="C67" t="s">
@@ -6257,7 +6251,7 @@
       <c r="A68" t="s">
         <v>214</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" t="s">
         <v>145</v>
       </c>
       <c r="C68" t="s">
@@ -6271,7 +6265,7 @@
       <c r="A69" t="s">
         <v>215</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" t="s">
         <v>145</v>
       </c>
       <c r="C69" t="s">
@@ -6285,7 +6279,7 @@
       <c r="A70" t="s">
         <v>216</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" t="s">
         <v>144</v>
       </c>
       <c r="C70" t="s">
@@ -6299,7 +6293,7 @@
       <c r="A71" t="s">
         <v>217</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" t="s">
         <v>144</v>
       </c>
       <c r="C71" t="s">
@@ -6313,7 +6307,7 @@
       <c r="A72" t="s">
         <v>218</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" t="s">
         <v>145</v>
       </c>
       <c r="C72" t="s">
@@ -6327,7 +6321,7 @@
       <c r="A73" t="s">
         <v>219</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" t="s">
         <v>146</v>
       </c>
       <c r="C73" t="s">
@@ -6341,7 +6335,7 @@
       <c r="A74" t="s">
         <v>220</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" t="s">
         <v>145</v>
       </c>
       <c r="C74" t="s">
@@ -6355,7 +6349,7 @@
       <c r="A75" t="s">
         <v>221</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" t="s">
         <v>145</v>
       </c>
       <c r="C75" t="s">
@@ -6369,7 +6363,7 @@
       <c r="A76" t="s">
         <v>222</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" t="s">
         <v>144</v>
       </c>
       <c r="C76" t="s">
@@ -6383,7 +6377,7 @@
       <c r="A77" t="s">
         <v>223</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" t="s">
         <v>144</v>
       </c>
       <c r="C77" t="s">
@@ -6397,7 +6391,7 @@
       <c r="A78" t="s">
         <v>224</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" t="s">
         <v>145</v>
       </c>
       <c r="C78" t="s">
@@ -6411,7 +6405,7 @@
       <c r="A79" t="s">
         <v>225</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" t="s">
         <v>144</v>
       </c>
       <c r="C79" t="s">
@@ -6425,7 +6419,7 @@
       <c r="A80" t="s">
         <v>226</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" t="s">
         <v>144</v>
       </c>
       <c r="C80" t="s">
@@ -6439,7 +6433,7 @@
       <c r="A81" t="s">
         <v>227</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" t="s">
         <v>145</v>
       </c>
       <c r="C81" t="s">
@@ -6453,7 +6447,7 @@
       <c r="A82" t="s">
         <v>228</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" t="s">
         <v>144</v>
       </c>
       <c r="C82" t="s">
@@ -6467,7 +6461,7 @@
       <c r="A83" t="s">
         <v>229</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" t="s">
         <v>145</v>
       </c>
       <c r="C83" t="s">
@@ -6481,7 +6475,7 @@
       <c r="A84" t="s">
         <v>230</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" t="s">
         <v>144</v>
       </c>
       <c r="C84" t="s">
@@ -6495,7 +6489,7 @@
       <c r="A85" t="s">
         <v>231</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" t="s">
         <v>144</v>
       </c>
       <c r="C85" t="s">
@@ -6509,7 +6503,7 @@
       <c r="A86" t="s">
         <v>232</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B86" t="s">
         <v>144</v>
       </c>
       <c r="C86" t="s">
@@ -6523,7 +6517,7 @@
       <c r="A87" t="s">
         <v>233</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" t="s">
         <v>144</v>
       </c>
       <c r="C87" t="s">
@@ -6537,7 +6531,7 @@
       <c r="A88" t="s">
         <v>234</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B88" t="s">
         <v>144</v>
       </c>
       <c r="C88" t="s">
@@ -6551,7 +6545,7 @@
       <c r="A89" t="s">
         <v>235</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B89" t="s">
         <v>145</v>
       </c>
       <c r="C89" t="s">
@@ -6565,7 +6559,7 @@
       <c r="A90" t="s">
         <v>236</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B90" t="s">
         <v>144</v>
       </c>
       <c r="C90" t="s">
@@ -6579,7 +6573,7 @@
       <c r="A91" t="s">
         <v>237</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" t="s">
         <v>144</v>
       </c>
       <c r="C91" t="s">
@@ -6593,7 +6587,7 @@
       <c r="A92" t="s">
         <v>238</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" t="s">
         <v>144</v>
       </c>
       <c r="C92" t="s">
@@ -6607,7 +6601,7 @@
       <c r="A93" t="s">
         <v>239</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B93" t="s">
         <v>144</v>
       </c>
       <c r="C93" t="s">
@@ -6621,7 +6615,7 @@
       <c r="A94" t="s">
         <v>240</v>
       </c>
-      <c r="B94" s="8" t="s">
+      <c r="B94" t="s">
         <v>144</v>
       </c>
       <c r="C94" t="s">
@@ -6635,7 +6629,7 @@
       <c r="A95" t="s">
         <v>241</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="B95" t="s">
         <v>144</v>
       </c>
       <c r="C95" t="s">
@@ -6649,7 +6643,7 @@
       <c r="A96" t="s">
         <v>242</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="B96" t="s">
         <v>145</v>
       </c>
       <c r="C96" t="s">
@@ -6663,7 +6657,7 @@
       <c r="A97" t="s">
         <v>243</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="B97" t="s">
         <v>144</v>
       </c>
       <c r="C97" t="s">
@@ -6677,7 +6671,7 @@
       <c r="A98" t="s">
         <v>244</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B98" t="s">
         <v>144</v>
       </c>
       <c r="C98" t="s">
@@ -6691,7 +6685,7 @@
       <c r="A99" t="s">
         <v>245</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B99" t="s">
         <v>144</v>
       </c>
       <c r="C99" t="s">
@@ -6705,7 +6699,7 @@
       <c r="A100" t="s">
         <v>246</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B100" t="s">
         <v>144</v>
       </c>
       <c r="C100" t="s">
@@ -6719,7 +6713,7 @@
       <c r="A101" t="s">
         <v>247</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B101" t="s">
         <v>144</v>
       </c>
       <c r="C101" t="s">
@@ -6733,7 +6727,7 @@
       <c r="A102" t="s">
         <v>248</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" t="s">
         <v>145</v>
       </c>
       <c r="C102" t="s">
@@ -6747,7 +6741,7 @@
       <c r="A103" t="s">
         <v>249</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B103" t="s">
         <v>144</v>
       </c>
       <c r="C103" t="s">
@@ -6761,7 +6755,7 @@
       <c r="A104" t="s">
         <v>250</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="B104" t="s">
         <v>145</v>
       </c>
       <c r="C104" t="s">
@@ -6775,7 +6769,7 @@
       <c r="A105" t="s">
         <v>251</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="B105" t="s">
         <v>144</v>
       </c>
       <c r="C105" t="s">
@@ -6789,7 +6783,7 @@
       <c r="A106" t="s">
         <v>252</v>
       </c>
-      <c r="B106" s="8" t="s">
+      <c r="B106" t="s">
         <v>144</v>
       </c>
       <c r="C106" t="s">
@@ -6803,7 +6797,7 @@
       <c r="A107" t="s">
         <v>253</v>
       </c>
-      <c r="B107" s="8" t="s">
+      <c r="B107" t="s">
         <v>144</v>
       </c>
       <c r="C107" t="s">
@@ -6817,7 +6811,7 @@
       <c r="A108" t="s">
         <v>254</v>
       </c>
-      <c r="B108" s="8" t="s">
+      <c r="B108" t="s">
         <v>144</v>
       </c>
       <c r="C108" t="s">
@@ -6831,7 +6825,7 @@
       <c r="A109" t="s">
         <v>255</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="B109" t="s">
         <v>144</v>
       </c>
       <c r="C109" t="s">
@@ -6845,7 +6839,7 @@
       <c r="A110" t="s">
         <v>256</v>
       </c>
-      <c r="B110" s="8" t="s">
+      <c r="B110" t="s">
         <v>144</v>
       </c>
       <c r="C110" t="s">
@@ -6859,7 +6853,7 @@
       <c r="A111" t="s">
         <v>257</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="B111" t="s">
         <v>144</v>
       </c>
       <c r="C111" t="s">
@@ -6873,7 +6867,7 @@
       <c r="A112" t="s">
         <v>258</v>
       </c>
-      <c r="B112" s="8" t="s">
+      <c r="B112" t="s">
         <v>145</v>
       </c>
       <c r="C112" t="s">
@@ -6887,7 +6881,7 @@
       <c r="A113" t="s">
         <v>259</v>
       </c>
-      <c r="B113" s="8" t="s">
+      <c r="B113" t="s">
         <v>144</v>
       </c>
       <c r="C113" t="s">
@@ -6901,7 +6895,7 @@
       <c r="A114" t="s">
         <v>260</v>
       </c>
-      <c r="B114" s="8" t="s">
+      <c r="B114" t="s">
         <v>144</v>
       </c>
       <c r="C114" t="s">
@@ -6915,7 +6909,7 @@
       <c r="A115" t="s">
         <v>261</v>
       </c>
-      <c r="B115" s="8" t="s">
+      <c r="B115" t="s">
         <v>145</v>
       </c>
       <c r="C115" t="s">
@@ -6929,7 +6923,7 @@
       <c r="A116" t="s">
         <v>262</v>
       </c>
-      <c r="B116" s="8" t="s">
+      <c r="B116" t="s">
         <v>144</v>
       </c>
       <c r="C116" t="s">
@@ -6943,7 +6937,7 @@
       <c r="A117" t="s">
         <v>263</v>
       </c>
-      <c r="B117" s="8" t="s">
+      <c r="B117" t="s">
         <v>144</v>
       </c>
       <c r="C117" t="s">
@@ -6957,7 +6951,7 @@
       <c r="A118" t="s">
         <v>264</v>
       </c>
-      <c r="B118" s="8" t="s">
+      <c r="B118" t="s">
         <v>145</v>
       </c>
       <c r="C118" t="s">
@@ -6971,7 +6965,7 @@
       <c r="A119" t="s">
         <v>265</v>
       </c>
-      <c r="B119" s="8" t="s">
+      <c r="B119" t="s">
         <v>144</v>
       </c>
       <c r="C119" t="s">
@@ -6985,7 +6979,7 @@
       <c r="A120" t="s">
         <v>266</v>
       </c>
-      <c r="B120" s="8" t="s">
+      <c r="B120" t="s">
         <v>144</v>
       </c>
       <c r="C120" t="s">
@@ -6999,7 +6993,7 @@
       <c r="A121" t="s">
         <v>267</v>
       </c>
-      <c r="B121" s="8" t="s">
+      <c r="B121" t="s">
         <v>144</v>
       </c>
       <c r="C121" t="s">
@@ -7013,7 +7007,7 @@
       <c r="A122" t="s">
         <v>268</v>
       </c>
-      <c r="B122" s="8" t="s">
+      <c r="B122" t="s">
         <v>145</v>
       </c>
       <c r="C122" t="s">
@@ -7027,7 +7021,7 @@
       <c r="A123" t="s">
         <v>269</v>
       </c>
-      <c r="B123" s="8" t="s">
+      <c r="B123" t="s">
         <v>144</v>
       </c>
       <c r="C123" t="s">
@@ -7041,7 +7035,7 @@
       <c r="A124" t="s">
         <v>270</v>
       </c>
-      <c r="B124" s="8" t="s">
+      <c r="B124" t="s">
         <v>145</v>
       </c>
       <c r="C124" t="s">
@@ -7055,7 +7049,7 @@
       <c r="A125" t="s">
         <v>271</v>
       </c>
-      <c r="B125" s="8" t="s">
+      <c r="B125" t="s">
         <v>145</v>
       </c>
       <c r="C125" t="s">
@@ -7069,7 +7063,7 @@
       <c r="A126" t="s">
         <v>272</v>
       </c>
-      <c r="B126" s="8" t="s">
+      <c r="B126" t="s">
         <v>145</v>
       </c>
       <c r="C126" t="s">
@@ -7083,7 +7077,7 @@
       <c r="A127" t="s">
         <v>273</v>
       </c>
-      <c r="B127" s="8" t="s">
+      <c r="B127" t="s">
         <v>145</v>
       </c>
       <c r="C127" t="s">
@@ -7097,7 +7091,7 @@
       <c r="A128" t="s">
         <v>274</v>
       </c>
-      <c r="B128" s="8" t="s">
+      <c r="B128" t="s">
         <v>145</v>
       </c>
       <c r="C128" t="s">
@@ -7111,7 +7105,7 @@
       <c r="A129" t="s">
         <v>275</v>
       </c>
-      <c r="B129" s="8" t="s">
+      <c r="B129" t="s">
         <v>145</v>
       </c>
       <c r="C129" t="s">
@@ -7125,7 +7119,7 @@
       <c r="A130" t="s">
         <v>276</v>
       </c>
-      <c r="B130" s="8" t="s">
+      <c r="B130" t="s">
         <v>145</v>
       </c>
       <c r="C130" t="s">
@@ -7139,7 +7133,7 @@
       <c r="A131" t="s">
         <v>277</v>
       </c>
-      <c r="B131" s="8" t="s">
+      <c r="B131" t="s">
         <v>145</v>
       </c>
       <c r="C131" t="s">
@@ -7153,7 +7147,7 @@
       <c r="A132" t="s">
         <v>278</v>
       </c>
-      <c r="B132" s="8" t="s">
+      <c r="B132" t="s">
         <v>145</v>
       </c>
       <c r="C132" t="s">
@@ -7167,7 +7161,7 @@
       <c r="A133" t="s">
         <v>279</v>
       </c>
-      <c r="B133" s="8" t="s">
+      <c r="B133" t="s">
         <v>144</v>
       </c>
       <c r="C133" t="s">
@@ -7181,7 +7175,7 @@
       <c r="A134" t="s">
         <v>280</v>
       </c>
-      <c r="B134" s="8" t="s">
+      <c r="B134" t="s">
         <v>145</v>
       </c>
       <c r="C134" t="s">
@@ -7195,7 +7189,7 @@
       <c r="A135" t="s">
         <v>281</v>
       </c>
-      <c r="B135" s="8" t="s">
+      <c r="B135" t="s">
         <v>145</v>
       </c>
       <c r="C135" t="s">
@@ -7209,7 +7203,7 @@
       <c r="A136" t="s">
         <v>282</v>
       </c>
-      <c r="B136" s="8" t="s">
+      <c r="B136" t="s">
         <v>145</v>
       </c>
       <c r="C136" t="s">
@@ -7223,7 +7217,7 @@
       <c r="A137" t="s">
         <v>283</v>
       </c>
-      <c r="B137" s="8" t="s">
+      <c r="B137" t="s">
         <v>145</v>
       </c>
       <c r="C137" t="s">
@@ -7237,7 +7231,7 @@
       <c r="A138" t="s">
         <v>284</v>
       </c>
-      <c r="B138" s="8" t="s">
+      <c r="B138" t="s">
         <v>145</v>
       </c>
       <c r="C138" t="s">
@@ -7251,7 +7245,7 @@
       <c r="A139" t="s">
         <v>285</v>
       </c>
-      <c r="B139" s="8" t="s">
+      <c r="B139" t="s">
         <v>145</v>
       </c>
       <c r="C139" t="s">
@@ -7265,7 +7259,7 @@
       <c r="A140" t="s">
         <v>286</v>
       </c>
-      <c r="B140" s="8" t="s">
+      <c r="B140" t="s">
         <v>145</v>
       </c>
       <c r="C140" t="s">
@@ -7279,7 +7273,7 @@
       <c r="A141" t="s">
         <v>287</v>
       </c>
-      <c r="B141" s="8" t="s">
+      <c r="B141" t="s">
         <v>146</v>
       </c>
       <c r="C141" t="s">
@@ -7293,7 +7287,7 @@
       <c r="A142" t="s">
         <v>288</v>
       </c>
-      <c r="B142" s="8" t="s">
+      <c r="B142" t="s">
         <v>145</v>
       </c>
       <c r="C142" t="s">
@@ -7307,7 +7301,7 @@
       <c r="A143" t="s">
         <v>289</v>
       </c>
-      <c r="B143" s="8" t="s">
+      <c r="B143" t="s">
         <v>145</v>
       </c>
       <c r="C143" t="s">
@@ -7321,7 +7315,7 @@
       <c r="A144" t="s">
         <v>290</v>
       </c>
-      <c r="B144" s="8" t="s">
+      <c r="B144" t="s">
         <v>145</v>
       </c>
       <c r="C144" t="s">
@@ -7335,7 +7329,7 @@
       <c r="A145" t="s">
         <v>291</v>
       </c>
-      <c r="B145" s="8" t="s">
+      <c r="B145" t="s">
         <v>145</v>
       </c>
       <c r="C145" t="s">
@@ -7349,7 +7343,7 @@
       <c r="A146" t="s">
         <v>292</v>
       </c>
-      <c r="B146" s="8" t="s">
+      <c r="B146" t="s">
         <v>145</v>
       </c>
       <c r="C146" t="s">
@@ -7363,7 +7357,7 @@
       <c r="A147" t="s">
         <v>293</v>
       </c>
-      <c r="B147" s="8" t="s">
+      <c r="B147" t="s">
         <v>145</v>
       </c>
       <c r="C147" t="s">
@@ -7377,7 +7371,7 @@
       <c r="A148" t="s">
         <v>294</v>
       </c>
-      <c r="B148" s="8" t="s">
+      <c r="B148" t="s">
         <v>145</v>
       </c>
       <c r="C148" t="s">
@@ -7391,7 +7385,7 @@
       <c r="A149" t="s">
         <v>295</v>
       </c>
-      <c r="B149" s="8" t="s">
+      <c r="B149" t="s">
         <v>145</v>
       </c>
       <c r="C149" t="s">
@@ -7405,7 +7399,7 @@
       <c r="A150" t="s">
         <v>296</v>
       </c>
-      <c r="B150" s="8" t="s">
+      <c r="B150" t="s">
         <v>145</v>
       </c>
       <c r="C150" t="s">
@@ -7419,7 +7413,7 @@
       <c r="A151" t="s">
         <v>297</v>
       </c>
-      <c r="B151" s="8" t="s">
+      <c r="B151" t="s">
         <v>145</v>
       </c>
       <c r="C151" t="s">
@@ -7433,7 +7427,7 @@
       <c r="A152" t="s">
         <v>298</v>
       </c>
-      <c r="B152" s="8" t="s">
+      <c r="B152" t="s">
         <v>145</v>
       </c>
       <c r="C152" t="s">
@@ -7447,7 +7441,7 @@
       <c r="A153" t="s">
         <v>299</v>
       </c>
-      <c r="B153" s="8" t="s">
+      <c r="B153" t="s">
         <v>145</v>
       </c>
       <c r="C153" t="s">
@@ -7461,7 +7455,7 @@
       <c r="A154" t="s">
         <v>300</v>
       </c>
-      <c r="B154" s="8" t="s">
+      <c r="B154" t="s">
         <v>145</v>
       </c>
       <c r="C154" t="s">
@@ -7475,7 +7469,7 @@
       <c r="A155" t="s">
         <v>301</v>
       </c>
-      <c r="B155" s="8" t="s">
+      <c r="B155" t="s">
         <v>144</v>
       </c>
       <c r="C155" t="s">
@@ -7489,7 +7483,7 @@
       <c r="A156" t="s">
         <v>302</v>
       </c>
-      <c r="B156" s="8" t="s">
+      <c r="B156" t="s">
         <v>145</v>
       </c>
       <c r="C156" t="s">
@@ -7503,7 +7497,7 @@
       <c r="A157" t="s">
         <v>303</v>
       </c>
-      <c r="B157" s="8" t="s">
+      <c r="B157" t="s">
         <v>144</v>
       </c>
       <c r="C157" t="s">
@@ -7517,7 +7511,7 @@
       <c r="A158" t="s">
         <v>304</v>
       </c>
-      <c r="B158" s="8" t="s">
+      <c r="B158" t="s">
         <v>145</v>
       </c>
       <c r="C158" t="s">
@@ -7531,7 +7525,7 @@
       <c r="A159" t="s">
         <v>305</v>
       </c>
-      <c r="B159" s="8" t="s">
+      <c r="B159" t="s">
         <v>144</v>
       </c>
       <c r="C159" t="s">
@@ -7545,7 +7539,7 @@
       <c r="A160" t="s">
         <v>306</v>
       </c>
-      <c r="B160" s="8" t="s">
+      <c r="B160" t="s">
         <v>144</v>
       </c>
       <c r="C160" t="s">
@@ -7559,7 +7553,7 @@
       <c r="A161" t="s">
         <v>307</v>
       </c>
-      <c r="B161" s="8" t="s">
+      <c r="B161" t="s">
         <v>144</v>
       </c>
       <c r="C161" t="s">
@@ -7573,7 +7567,7 @@
       <c r="A162" t="s">
         <v>308</v>
       </c>
-      <c r="B162" s="8" t="s">
+      <c r="B162" t="s">
         <v>144</v>
       </c>
       <c r="C162" t="s">
@@ -7587,7 +7581,7 @@
       <c r="A163" t="s">
         <v>309</v>
       </c>
-      <c r="B163" s="8" t="s">
+      <c r="B163" t="s">
         <v>145</v>
       </c>
       <c r="C163" t="s">
@@ -7601,7 +7595,7 @@
       <c r="A164" t="s">
         <v>310</v>
       </c>
-      <c r="B164" s="8" t="s">
+      <c r="B164" t="s">
         <v>145</v>
       </c>
       <c r="C164" t="s">
@@ -7615,7 +7609,7 @@
       <c r="A165" t="s">
         <v>311</v>
       </c>
-      <c r="B165" s="8" t="s">
+      <c r="B165" t="s">
         <v>145</v>
       </c>
       <c r="C165" t="s">
@@ -7629,7 +7623,7 @@
       <c r="A166" t="s">
         <v>312</v>
       </c>
-      <c r="B166" s="8" t="s">
+      <c r="B166" t="s">
         <v>144</v>
       </c>
       <c r="C166" t="s">
@@ -7643,7 +7637,7 @@
       <c r="A167" t="s">
         <v>313</v>
       </c>
-      <c r="B167" s="8" t="s">
+      <c r="B167" t="s">
         <v>144</v>
       </c>
       <c r="C167" t="s">
@@ -7657,7 +7651,7 @@
       <c r="A168" t="s">
         <v>314</v>
       </c>
-      <c r="B168" s="8" t="s">
+      <c r="B168" t="s">
         <v>145</v>
       </c>
       <c r="C168" t="s">
@@ -7671,7 +7665,7 @@
       <c r="A169" t="s">
         <v>315</v>
       </c>
-      <c r="B169" s="8" t="s">
+      <c r="B169" t="s">
         <v>145</v>
       </c>
       <c r="C169" t="s">
@@ -7685,7 +7679,7 @@
       <c r="A170" t="s">
         <v>316</v>
       </c>
-      <c r="B170" s="8" t="s">
+      <c r="B170" t="s">
         <v>144</v>
       </c>
       <c r="C170" t="s">
@@ -7699,7 +7693,7 @@
       <c r="A171" t="s">
         <v>317</v>
       </c>
-      <c r="B171" s="8" t="s">
+      <c r="B171" t="s">
         <v>145</v>
       </c>
       <c r="C171" t="s">
@@ -7713,7 +7707,7 @@
       <c r="A172" t="s">
         <v>318</v>
       </c>
-      <c r="B172" s="8" t="s">
+      <c r="B172" t="s">
         <v>144</v>
       </c>
       <c r="C172" t="s">
@@ -7727,7 +7721,7 @@
       <c r="A173" t="s">
         <v>319</v>
       </c>
-      <c r="B173" s="8" t="s">
+      <c r="B173" t="s">
         <v>144</v>
       </c>
       <c r="C173" t="s">
@@ -7741,7 +7735,7 @@
       <c r="A174" t="s">
         <v>320</v>
       </c>
-      <c r="B174" s="8" t="s">
+      <c r="B174" t="s">
         <v>144</v>
       </c>
       <c r="C174" t="s">
@@ -7755,7 +7749,7 @@
       <c r="A175" t="s">
         <v>321</v>
       </c>
-      <c r="B175" s="8" t="s">
+      <c r="B175" t="s">
         <v>145</v>
       </c>
       <c r="C175" t="s">
@@ -7769,7 +7763,7 @@
       <c r="A176" t="s">
         <v>322</v>
       </c>
-      <c r="B176" s="8" t="s">
+      <c r="B176" t="s">
         <v>144</v>
       </c>
       <c r="C176" t="s">
@@ -7783,7 +7777,7 @@
       <c r="A177" t="s">
         <v>323</v>
       </c>
-      <c r="B177" s="8" t="s">
+      <c r="B177" t="s">
         <v>145</v>
       </c>
       <c r="C177" t="s">
@@ -7797,7 +7791,7 @@
       <c r="A178" t="s">
         <v>324</v>
       </c>
-      <c r="B178" s="8" t="s">
+      <c r="B178" t="s">
         <v>145</v>
       </c>
       <c r="C178" t="s">
@@ -7811,7 +7805,7 @@
       <c r="A179" t="s">
         <v>325</v>
       </c>
-      <c r="B179" s="8" t="s">
+      <c r="B179" t="s">
         <v>144</v>
       </c>
       <c r="C179" t="s">
@@ -7825,7 +7819,7 @@
       <c r="A180" t="s">
         <v>326</v>
       </c>
-      <c r="B180" s="8" t="s">
+      <c r="B180" t="s">
         <v>144</v>
       </c>
       <c r="C180" t="s">
@@ -7839,7 +7833,7 @@
       <c r="A181" t="s">
         <v>327</v>
       </c>
-      <c r="B181" s="8" t="s">
+      <c r="B181" t="s">
         <v>144</v>
       </c>
       <c r="C181" t="s">
@@ -7853,7 +7847,7 @@
       <c r="A182" t="s">
         <v>328</v>
       </c>
-      <c r="B182" s="8" t="s">
+      <c r="B182" t="s">
         <v>144</v>
       </c>
       <c r="C182" t="s">
@@ -7867,7 +7861,7 @@
       <c r="A183" t="s">
         <v>329</v>
       </c>
-      <c r="B183" s="8" t="s">
+      <c r="B183" t="s">
         <v>144</v>
       </c>
       <c r="C183" t="s">
@@ -7881,7 +7875,7 @@
       <c r="A184" t="s">
         <v>330</v>
       </c>
-      <c r="B184" s="8" t="s">
+      <c r="B184" t="s">
         <v>144</v>
       </c>
       <c r="C184" t="s">
@@ -7895,7 +7889,7 @@
       <c r="A185" t="s">
         <v>331</v>
       </c>
-      <c r="B185" s="8" t="s">
+      <c r="B185" t="s">
         <v>144</v>
       </c>
       <c r="C185" t="s">
@@ -7909,7 +7903,7 @@
       <c r="A186" t="s">
         <v>332</v>
       </c>
-      <c r="B186" s="8" t="s">
+      <c r="B186" t="s">
         <v>145</v>
       </c>
       <c r="C186" t="s">
@@ -7923,7 +7917,7 @@
       <c r="A187" t="s">
         <v>333</v>
       </c>
-      <c r="B187" s="8" t="s">
+      <c r="B187" t="s">
         <v>145</v>
       </c>
       <c r="C187" t="s">
@@ -7937,7 +7931,7 @@
       <c r="A188" t="s">
         <v>334</v>
       </c>
-      <c r="B188" s="8" t="s">
+      <c r="B188" t="s">
         <v>145</v>
       </c>
       <c r="C188" t="s">
@@ -7951,7 +7945,7 @@
       <c r="A189" t="s">
         <v>335</v>
       </c>
-      <c r="B189" s="8" t="s">
+      <c r="B189" t="s">
         <v>145</v>
       </c>
       <c r="C189" t="s">
@@ -7965,7 +7959,7 @@
       <c r="A190" t="s">
         <v>336</v>
       </c>
-      <c r="B190" s="8" t="s">
+      <c r="B190" t="s">
         <v>145</v>
       </c>
       <c r="C190" t="s">
@@ -7979,7 +7973,7 @@
       <c r="A191" t="s">
         <v>337</v>
       </c>
-      <c r="B191" s="8" t="s">
+      <c r="B191" t="s">
         <v>145</v>
       </c>
       <c r="C191" t="s">
@@ -7993,7 +7987,7 @@
       <c r="A192" t="s">
         <v>338</v>
       </c>
-      <c r="B192" s="8" t="s">
+      <c r="B192" t="s">
         <v>145</v>
       </c>
       <c r="C192" t="s">
@@ -8007,7 +8001,7 @@
       <c r="A193" t="s">
         <v>339</v>
       </c>
-      <c r="B193" s="8" t="s">
+      <c r="B193" t="s">
         <v>145</v>
       </c>
       <c r="C193" t="s">
@@ -8021,7 +8015,7 @@
       <c r="A194" t="s">
         <v>340</v>
       </c>
-      <c r="B194" s="8" t="s">
+      <c r="B194" t="s">
         <v>145</v>
       </c>
       <c r="C194" t="s">
@@ -8035,7 +8029,7 @@
       <c r="A195" t="s">
         <v>341</v>
       </c>
-      <c r="B195" s="8" t="s">
+      <c r="B195" t="s">
         <v>145</v>
       </c>
       <c r="C195" t="s">
@@ -8049,7 +8043,7 @@
       <c r="A196" t="s">
         <v>342</v>
       </c>
-      <c r="B196" s="8" t="s">
+      <c r="B196" t="s">
         <v>145</v>
       </c>
       <c r="C196" t="s">
@@ -8063,7 +8057,7 @@
       <c r="A197" t="s">
         <v>343</v>
       </c>
-      <c r="B197" s="8" t="s">
+      <c r="B197" t="s">
         <v>146</v>
       </c>
       <c r="C197" t="s">
@@ -8077,7 +8071,7 @@
       <c r="A198" t="s">
         <v>344</v>
       </c>
-      <c r="B198" s="8" t="s">
+      <c r="B198" t="s">
         <v>144</v>
       </c>
       <c r="C198" t="s">
@@ -8091,7 +8085,7 @@
       <c r="A199" t="s">
         <v>345</v>
       </c>
-      <c r="B199" s="8" t="s">
+      <c r="B199" t="s">
         <v>145</v>
       </c>
       <c r="C199" t="s">
@@ -8105,7 +8099,7 @@
       <c r="A200" t="s">
         <v>346</v>
       </c>
-      <c r="B200" s="8" t="s">
+      <c r="B200" t="s">
         <v>146</v>
       </c>
       <c r="C200" t="s">
@@ -8119,7 +8113,7 @@
       <c r="A201" t="s">
         <v>347</v>
       </c>
-      <c r="B201" s="8" t="s">
+      <c r="B201" t="s">
         <v>145</v>
       </c>
       <c r="C201" t="s">
@@ -8133,7 +8127,7 @@
       <c r="A202" t="s">
         <v>348</v>
       </c>
-      <c r="B202" s="8" t="s">
+      <c r="B202" t="s">
         <v>145</v>
       </c>
       <c r="C202" t="s">
@@ -8147,7 +8141,7 @@
       <c r="A203" t="s">
         <v>349</v>
       </c>
-      <c r="B203" s="8" t="s">
+      <c r="B203" t="s">
         <v>145</v>
       </c>
       <c r="C203" t="s">
@@ -8161,7 +8155,7 @@
       <c r="A204" t="s">
         <v>350</v>
       </c>
-      <c r="B204" s="8" t="s">
+      <c r="B204" t="s">
         <v>145</v>
       </c>
       <c r="C204" t="s">
@@ -8175,7 +8169,7 @@
       <c r="A205" t="s">
         <v>351</v>
       </c>
-      <c r="B205" s="8" t="s">
+      <c r="B205" t="s">
         <v>144</v>
       </c>
       <c r="C205" t="s">
@@ -8189,7 +8183,7 @@
       <c r="A206" t="s">
         <v>352</v>
       </c>
-      <c r="B206" s="8" t="s">
+      <c r="B206" t="s">
         <v>145</v>
       </c>
       <c r="C206" t="s">
@@ -8203,7 +8197,7 @@
       <c r="A207" t="s">
         <v>353</v>
       </c>
-      <c r="B207" s="8" t="s">
+      <c r="B207" t="s">
         <v>145</v>
       </c>
       <c r="C207" t="s">
@@ -8217,7 +8211,7 @@
       <c r="A208" t="s">
         <v>354</v>
       </c>
-      <c r="B208" s="8" t="s">
+      <c r="B208" t="s">
         <v>145</v>
       </c>
       <c r="C208" t="s">
@@ -8231,7 +8225,7 @@
       <c r="A209" t="s">
         <v>355</v>
       </c>
-      <c r="B209" s="8" t="s">
+      <c r="B209" t="s">
         <v>144</v>
       </c>
       <c r="C209" t="s">
@@ -8245,7 +8239,7 @@
       <c r="A210" t="s">
         <v>356</v>
       </c>
-      <c r="B210" s="8" t="s">
+      <c r="B210" t="s">
         <v>145</v>
       </c>
       <c r="C210" t="s">
@@ -8259,7 +8253,7 @@
       <c r="A211" t="s">
         <v>357</v>
       </c>
-      <c r="B211" s="8" t="s">
+      <c r="B211" t="s">
         <v>145</v>
       </c>
       <c r="C211" t="s">
@@ -8273,7 +8267,7 @@
       <c r="A212" t="s">
         <v>358</v>
       </c>
-      <c r="B212" s="8" t="s">
+      <c r="B212" t="s">
         <v>144</v>
       </c>
       <c r="C212" t="s">
@@ -8287,7 +8281,7 @@
       <c r="A213" t="s">
         <v>359</v>
       </c>
-      <c r="B213" s="8" t="s">
+      <c r="B213" t="s">
         <v>144</v>
       </c>
       <c r="C213" t="s">
@@ -8301,7 +8295,7 @@
       <c r="A214" t="s">
         <v>360</v>
       </c>
-      <c r="B214" s="8" t="s">
+      <c r="B214" t="s">
         <v>145</v>
       </c>
       <c r="C214" t="s">
@@ -8315,7 +8309,7 @@
       <c r="A215" t="s">
         <v>361</v>
       </c>
-      <c r="B215" s="8" t="s">
+      <c r="B215" t="s">
         <v>146</v>
       </c>
       <c r="C215" t="s">
@@ -8329,7 +8323,7 @@
       <c r="A216" t="s">
         <v>362</v>
       </c>
-      <c r="B216" s="8" t="s">
+      <c r="B216" t="s">
         <v>146</v>
       </c>
       <c r="C216" t="s">
@@ -8343,7 +8337,7 @@
       <c r="A217" t="s">
         <v>363</v>
       </c>
-      <c r="B217" s="8" t="s">
+      <c r="B217" t="s">
         <v>145</v>
       </c>
       <c r="C217" t="s">
@@ -8357,7 +8351,7 @@
       <c r="A218" t="s">
         <v>364</v>
       </c>
-      <c r="B218" s="8" t="s">
+      <c r="B218" t="s">
         <v>146</v>
       </c>
       <c r="C218" t="s">
@@ -8371,7 +8365,7 @@
       <c r="A219" t="s">
         <v>365</v>
       </c>
-      <c r="B219" s="8" t="s">
+      <c r="B219" t="s">
         <v>145</v>
       </c>
       <c r="C219" t="s">
@@ -8385,7 +8379,7 @@
       <c r="A220" t="s">
         <v>366</v>
       </c>
-      <c r="B220" s="8" t="s">
+      <c r="B220" t="s">
         <v>145</v>
       </c>
       <c r="C220" t="s">
@@ -8399,7 +8393,7 @@
       <c r="A221" t="s">
         <v>367</v>
       </c>
-      <c r="B221" s="8" t="s">
+      <c r="B221" t="s">
         <v>144</v>
       </c>
       <c r="C221" t="s">
@@ -8413,7 +8407,7 @@
       <c r="A222" t="s">
         <v>368</v>
       </c>
-      <c r="B222" s="8" t="s">
+      <c r="B222" t="s">
         <v>144</v>
       </c>
       <c r="C222" t="s">
@@ -8427,7 +8421,7 @@
       <c r="A223" t="s">
         <v>369</v>
       </c>
-      <c r="B223" s="8" t="s">
+      <c r="B223" t="s">
         <v>145</v>
       </c>
       <c r="C223" t="s">
@@ -8441,7 +8435,7 @@
       <c r="A224" t="s">
         <v>370</v>
       </c>
-      <c r="B224" s="8" t="s">
+      <c r="B224" t="s">
         <v>145</v>
       </c>
       <c r="C224" t="s">
@@ -8455,7 +8449,7 @@
       <c r="A225" t="s">
         <v>371</v>
       </c>
-      <c r="B225" s="8" t="s">
+      <c r="B225" t="s">
         <v>144</v>
       </c>
       <c r="C225" t="s">
@@ -8469,7 +8463,7 @@
       <c r="A226" t="s">
         <v>372</v>
       </c>
-      <c r="B226" s="8" t="s">
+      <c r="B226" t="s">
         <v>146</v>
       </c>
       <c r="C226" t="s">
@@ -8483,7 +8477,7 @@
       <c r="A227" t="s">
         <v>373</v>
       </c>
-      <c r="B227" s="8" t="s">
+      <c r="B227" t="s">
         <v>146</v>
       </c>
       <c r="C227" t="s">
@@ -8497,7 +8491,7 @@
       <c r="A228" t="s">
         <v>374</v>
       </c>
-      <c r="B228" s="8" t="s">
+      <c r="B228" t="s">
         <v>144</v>
       </c>
       <c r="C228" t="s">
@@ -8511,7 +8505,7 @@
       <c r="A229" t="s">
         <v>375</v>
       </c>
-      <c r="B229" s="8" t="s">
+      <c r="B229" t="s">
         <v>145</v>
       </c>
       <c r="C229" t="s">
@@ -8525,7 +8519,7 @@
       <c r="A230" t="s">
         <v>376</v>
       </c>
-      <c r="B230" s="8" t="s">
+      <c r="B230" t="s">
         <v>146</v>
       </c>
       <c r="C230" t="s">
@@ -8539,7 +8533,7 @@
       <c r="A231" t="s">
         <v>377</v>
       </c>
-      <c r="B231" s="8" t="s">
+      <c r="B231" t="s">
         <v>146</v>
       </c>
       <c r="C231" t="s">
@@ -8553,7 +8547,7 @@
       <c r="A232" t="s">
         <v>378</v>
       </c>
-      <c r="B232" s="8" t="s">
+      <c r="B232" t="s">
         <v>144</v>
       </c>
       <c r="C232" t="s">
@@ -8567,7 +8561,7 @@
       <c r="A233" t="s">
         <v>379</v>
       </c>
-      <c r="B233" s="8" t="s">
+      <c r="B233" t="s">
         <v>144</v>
       </c>
       <c r="C233" t="s">
@@ -8581,7 +8575,7 @@
       <c r="A234" t="s">
         <v>380</v>
       </c>
-      <c r="B234" s="8" t="s">
+      <c r="B234" t="s">
         <v>145</v>
       </c>
       <c r="C234" t="s">
@@ -8595,7 +8589,7 @@
       <c r="A235" t="s">
         <v>381</v>
       </c>
-      <c r="B235" s="8" t="s">
+      <c r="B235" t="s">
         <v>146</v>
       </c>
       <c r="C235" t="s">
@@ -8609,7 +8603,7 @@
       <c r="A236" t="s">
         <v>382</v>
       </c>
-      <c r="B236" s="8" t="s">
+      <c r="B236" t="s">
         <v>144</v>
       </c>
       <c r="C236" t="s">
@@ -8623,7 +8617,7 @@
       <c r="A237" t="s">
         <v>383</v>
       </c>
-      <c r="B237" s="8" t="s">
+      <c r="B237" t="s">
         <v>145</v>
       </c>
       <c r="C237" t="s">
@@ -8637,7 +8631,7 @@
       <c r="A238" t="s">
         <v>384</v>
       </c>
-      <c r="B238" s="8" t="s">
+      <c r="B238" t="s">
         <v>144</v>
       </c>
       <c r="C238" t="s">
@@ -8651,7 +8645,7 @@
       <c r="A239" t="s">
         <v>385</v>
       </c>
-      <c r="B239" s="8" t="s">
+      <c r="B239" t="s">
         <v>144</v>
       </c>
       <c r="C239" t="s">
@@ -8665,7 +8659,7 @@
       <c r="A240" t="s">
         <v>386</v>
       </c>
-      <c r="B240" s="8" t="s">
+      <c r="B240" t="s">
         <v>145</v>
       </c>
       <c r="C240" t="s">
@@ -8679,7 +8673,7 @@
       <c r="A241" t="s">
         <v>387</v>
       </c>
-      <c r="B241" s="8" t="s">
+      <c r="B241" t="s">
         <v>146</v>
       </c>
       <c r="C241" t="s">
@@ -8693,7 +8687,7 @@
       <c r="A242" t="s">
         <v>388</v>
       </c>
-      <c r="B242" s="8" t="s">
+      <c r="B242" t="s">
         <v>144</v>
       </c>
       <c r="C242" t="s">
@@ -8707,7 +8701,7 @@
       <c r="A243" t="s">
         <v>389</v>
       </c>
-      <c r="B243" s="8" t="s">
+      <c r="B243" t="s">
         <v>144</v>
       </c>
       <c r="C243" t="s">
@@ -8721,7 +8715,7 @@
       <c r="A244" t="s">
         <v>390</v>
       </c>
-      <c r="B244" s="8" t="s">
+      <c r="B244" t="s">
         <v>145</v>
       </c>
       <c r="C244" t="s">
@@ -8735,7 +8729,7 @@
       <c r="A245" t="s">
         <v>391</v>
       </c>
-      <c r="B245" s="8" t="s">
+      <c r="B245" t="s">
         <v>145</v>
       </c>
       <c r="C245" t="s">
@@ -8749,7 +8743,7 @@
       <c r="A246" t="s">
         <v>392</v>
       </c>
-      <c r="B246" s="8" t="s">
+      <c r="B246" t="s">
         <v>144</v>
       </c>
       <c r="C246" t="s">
@@ -8763,7 +8757,7 @@
       <c r="A247" t="s">
         <v>393</v>
       </c>
-      <c r="B247" s="8" t="s">
+      <c r="B247" t="s">
         <v>144</v>
       </c>
       <c r="C247" t="s">
@@ -8777,7 +8771,7 @@
       <c r="A248" t="s">
         <v>394</v>
       </c>
-      <c r="B248" s="8" t="s">
+      <c r="B248" t="s">
         <v>144</v>
       </c>
       <c r="C248" t="s">
@@ -8791,7 +8785,7 @@
       <c r="A249" t="s">
         <v>395</v>
       </c>
-      <c r="B249" s="8" t="s">
+      <c r="B249" t="s">
         <v>144</v>
       </c>
       <c r="C249" t="s">
@@ -8805,7 +8799,7 @@
       <c r="A250" t="s">
         <v>396</v>
       </c>
-      <c r="B250" s="8" t="s">
+      <c r="B250" t="s">
         <v>144</v>
       </c>
       <c r="C250" t="s">
@@ -8819,7 +8813,7 @@
       <c r="A251" t="s">
         <v>397</v>
       </c>
-      <c r="B251" s="8" t="s">
+      <c r="B251" t="s">
         <v>144</v>
       </c>
       <c r="C251" t="s">
@@ -8833,7 +8827,7 @@
       <c r="A252" t="s">
         <v>398</v>
       </c>
-      <c r="B252" s="8" t="s">
+      <c r="B252" t="s">
         <v>144</v>
       </c>
       <c r="C252" t="s">
@@ -8847,7 +8841,7 @@
       <c r="A253" t="s">
         <v>399</v>
       </c>
-      <c r="B253" s="8" t="s">
+      <c r="B253" t="s">
         <v>144</v>
       </c>
       <c r="C253" t="s">
@@ -8861,7 +8855,7 @@
       <c r="A254" t="s">
         <v>400</v>
       </c>
-      <c r="B254" s="8" t="s">
+      <c r="B254" t="s">
         <v>144</v>
       </c>
       <c r="C254" t="s">
@@ -8875,7 +8869,7 @@
       <c r="A255" t="s">
         <v>401</v>
       </c>
-      <c r="B255" s="8" t="s">
+      <c r="B255" t="s">
         <v>144</v>
       </c>
       <c r="C255" t="s">
@@ -8889,7 +8883,7 @@
       <c r="A256" t="s">
         <v>402</v>
       </c>
-      <c r="B256" s="8" t="s">
+      <c r="B256" t="s">
         <v>144</v>
       </c>
       <c r="C256" t="s">
@@ -8903,7 +8897,7 @@
       <c r="A257" t="s">
         <v>403</v>
       </c>
-      <c r="B257" s="8" t="s">
+      <c r="B257" t="s">
         <v>144</v>
       </c>
       <c r="C257" t="s">
@@ -8917,7 +8911,7 @@
       <c r="A258" t="s">
         <v>404</v>
       </c>
-      <c r="B258" s="8" t="s">
+      <c r="B258" t="s">
         <v>144</v>
       </c>
       <c r="C258" t="s">
@@ -8931,7 +8925,7 @@
       <c r="A259" t="s">
         <v>405</v>
       </c>
-      <c r="B259" s="8" t="s">
+      <c r="B259" t="s">
         <v>144</v>
       </c>
       <c r="C259" t="s">
@@ -8945,7 +8939,7 @@
       <c r="A260" t="s">
         <v>406</v>
       </c>
-      <c r="B260" s="8" t="s">
+      <c r="B260" t="s">
         <v>144</v>
       </c>
       <c r="C260" t="s">
@@ -8959,7 +8953,7 @@
       <c r="A261" t="s">
         <v>407</v>
       </c>
-      <c r="B261" s="8" t="s">
+      <c r="B261" t="s">
         <v>145</v>
       </c>
       <c r="C261" t="s">
@@ -8973,7 +8967,7 @@
       <c r="A262" t="s">
         <v>408</v>
       </c>
-      <c r="B262" s="8" t="s">
+      <c r="B262" t="s">
         <v>144</v>
       </c>
       <c r="C262" t="s">
@@ -8987,7 +8981,7 @@
       <c r="A263" t="s">
         <v>409</v>
       </c>
-      <c r="B263" s="8" t="s">
+      <c r="B263" t="s">
         <v>144</v>
       </c>
       <c r="C263" t="s">
@@ -9001,7 +8995,7 @@
       <c r="A264" t="s">
         <v>410</v>
       </c>
-      <c r="B264" s="8" t="s">
+      <c r="B264" t="s">
         <v>144</v>
       </c>
       <c r="C264" t="s">
@@ -9015,7 +9009,7 @@
       <c r="A265" t="s">
         <v>411</v>
       </c>
-      <c r="B265" s="8" t="s">
+      <c r="B265" t="s">
         <v>144</v>
       </c>
       <c r="C265" t="s">
@@ -9029,7 +9023,7 @@
       <c r="A266" t="s">
         <v>412</v>
       </c>
-      <c r="B266" s="8" t="s">
+      <c r="B266" t="s">
         <v>144</v>
       </c>
       <c r="C266" t="s">
@@ -9043,7 +9037,7 @@
       <c r="A267" t="s">
         <v>413</v>
       </c>
-      <c r="B267" s="8" t="s">
+      <c r="B267" t="s">
         <v>144</v>
       </c>
       <c r="C267" t="s">
@@ -9057,7 +9051,7 @@
       <c r="A268" t="s">
         <v>414</v>
       </c>
-      <c r="B268" s="8" t="s">
+      <c r="B268" t="s">
         <v>144</v>
       </c>
       <c r="C268" t="s">
@@ -9071,7 +9065,7 @@
       <c r="A269" t="s">
         <v>415</v>
       </c>
-      <c r="B269" s="8" t="s">
+      <c r="B269" t="s">
         <v>146</v>
       </c>
       <c r="C269" t="s">
@@ -9085,7 +9079,7 @@
       <c r="A270" t="s">
         <v>416</v>
       </c>
-      <c r="B270" s="8" t="s">
+      <c r="B270" t="s">
         <v>144</v>
       </c>
       <c r="C270" t="s">
@@ -9099,7 +9093,7 @@
       <c r="A271" t="s">
         <v>417</v>
       </c>
-      <c r="B271" s="8" t="s">
+      <c r="B271" t="s">
         <v>144</v>
       </c>
       <c r="C271" t="s">
@@ -9113,7 +9107,7 @@
       <c r="A272" t="s">
         <v>418</v>
       </c>
-      <c r="B272" s="8" t="s">
+      <c r="B272" t="s">
         <v>144</v>
       </c>
       <c r="C272" t="s">
@@ -9127,7 +9121,7 @@
       <c r="A273" t="s">
         <v>419</v>
       </c>
-      <c r="B273" s="8" t="s">
+      <c r="B273" t="s">
         <v>144</v>
       </c>
       <c r="C273" t="s">
@@ -9141,7 +9135,7 @@
       <c r="A274" t="s">
         <v>420</v>
       </c>
-      <c r="B274" s="8" t="s">
+      <c r="B274" t="s">
         <v>144</v>
       </c>
       <c r="C274" t="s">
@@ -9155,7 +9149,7 @@
       <c r="A275" t="s">
         <v>421</v>
       </c>
-      <c r="B275" s="8" t="s">
+      <c r="B275" t="s">
         <v>144</v>
       </c>
       <c r="C275" t="s">
@@ -9169,7 +9163,7 @@
       <c r="A276" t="s">
         <v>422</v>
       </c>
-      <c r="B276" s="8" t="s">
+      <c r="B276" t="s">
         <v>144</v>
       </c>
       <c r="C276" t="s">
@@ -9183,7 +9177,7 @@
       <c r="A277" t="s">
         <v>423</v>
       </c>
-      <c r="B277" s="8" t="s">
+      <c r="B277" t="s">
         <v>144</v>
       </c>
       <c r="C277" t="s">
@@ -9197,7 +9191,7 @@
       <c r="A278" t="s">
         <v>424</v>
       </c>
-      <c r="B278" s="8" t="s">
+      <c r="B278" t="s">
         <v>144</v>
       </c>
       <c r="C278" t="s">
@@ -9211,7 +9205,7 @@
       <c r="A279" t="s">
         <v>425</v>
       </c>
-      <c r="B279" s="8" t="s">
+      <c r="B279" t="s">
         <v>145</v>
       </c>
       <c r="C279" t="s">
@@ -9225,7 +9219,7 @@
       <c r="A280" t="s">
         <v>426</v>
       </c>
-      <c r="B280" s="8" t="s">
+      <c r="B280" t="s">
         <v>144</v>
       </c>
       <c r="C280" t="s">
@@ -9239,7 +9233,7 @@
       <c r="A281" t="s">
         <v>427</v>
       </c>
-      <c r="B281" s="8" t="s">
+      <c r="B281" t="s">
         <v>144</v>
       </c>
       <c r="C281" t="s">
@@ -9253,7 +9247,7 @@
       <c r="A282" t="s">
         <v>428</v>
       </c>
-      <c r="B282" s="8" t="s">
+      <c r="B282" t="s">
         <v>144</v>
       </c>
       <c r="C282" t="s">
@@ -9267,7 +9261,7 @@
       <c r="A283" t="s">
         <v>429</v>
       </c>
-      <c r="B283" s="8" t="s">
+      <c r="B283" t="s">
         <v>144</v>
       </c>
       <c r="C283" t="s">
@@ -9281,7 +9275,7 @@
       <c r="A284" t="s">
         <v>430</v>
       </c>
-      <c r="B284" s="8" t="s">
+      <c r="B284" t="s">
         <v>144</v>
       </c>
       <c r="C284" t="s">
@@ -9295,7 +9289,7 @@
       <c r="A285" t="s">
         <v>431</v>
       </c>
-      <c r="B285" s="8" t="s">
+      <c r="B285" t="s">
         <v>144</v>
       </c>
       <c r="C285" t="s">
@@ -9309,7 +9303,7 @@
       <c r="A286" t="s">
         <v>432</v>
       </c>
-      <c r="B286" s="8" t="s">
+      <c r="B286" t="s">
         <v>144</v>
       </c>
       <c r="C286" t="s">
@@ -9340,7 +9334,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>147</v>
@@ -9355,331 +9349,331 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="B2" t="s">
         <v>487</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>488</v>
-      </c>
-      <c r="C2" t="s">
-        <v>489</v>
       </c>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="B3" t="s">
         <v>490</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>491</v>
-      </c>
-      <c r="C3" t="s">
-        <v>492</v>
       </c>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="B4" t="s">
         <v>493</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>494</v>
-      </c>
-      <c r="C4" t="s">
-        <v>495</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="B5" t="s">
         <v>496</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>497</v>
-      </c>
-      <c r="C5" t="s">
-        <v>498</v>
       </c>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="B6" t="s">
         <v>499</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>500</v>
-      </c>
-      <c r="C6" t="s">
-        <v>501</v>
       </c>
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B7" t="s">
         <v>439</v>
       </c>
       <c r="C7" t="s">
+        <v>502</v>
+      </c>
+      <c r="D7" t="s">
         <v>503</v>
-      </c>
-      <c r="D7" t="s">
-        <v>504</v>
       </c>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B8" t="s">
         <v>437</v>
       </c>
       <c r="C8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B9" t="s">
         <v>435</v>
       </c>
       <c r="C9" t="s">
+        <v>507</v>
+      </c>
+      <c r="D9" t="s">
         <v>508</v>
-      </c>
-      <c r="D9" t="s">
-        <v>509</v>
       </c>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B10" t="s">
         <v>438</v>
       </c>
       <c r="C10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D10" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="B11" t="s">
         <v>512</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>513</v>
       </c>
-      <c r="C11" t="s">
-        <v>514</v>
-      </c>
       <c r="D11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B12" t="s">
         <v>436</v>
       </c>
       <c r="C12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D12" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="B13" t="s">
         <v>517</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>518</v>
-      </c>
-      <c r="C13" t="s">
-        <v>519</v>
       </c>
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="B14" t="s">
         <v>520</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>521</v>
-      </c>
-      <c r="C14" t="s">
-        <v>522</v>
       </c>
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B15" t="s">
         <v>433</v>
       </c>
       <c r="C15" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D15" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B16" t="s">
         <v>440</v>
       </c>
       <c r="C16" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D16" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B17" t="s">
         <v>434</v>
       </c>
       <c r="C17" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D17" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="B18" t="s">
         <v>529</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>530</v>
-      </c>
-      <c r="C18" t="s">
-        <v>531</v>
       </c>
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="B19" t="s">
         <v>532</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>533</v>
-      </c>
-      <c r="C19" t="s">
-        <v>534</v>
       </c>
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="B20" t="s">
         <v>535</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>536</v>
-      </c>
-      <c r="C20" t="s">
-        <v>537</v>
       </c>
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="B21" t="s">
         <v>538</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>539</v>
-      </c>
-      <c r="C21" t="s">
-        <v>540</v>
       </c>
       <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B22" t="s">
         <v>541</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>542</v>
-      </c>
-      <c r="C22" t="s">
-        <v>543</v>
       </c>
       <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="B23" t="s">
         <v>544</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>545</v>
-      </c>
-      <c r="C23" t="s">
-        <v>546</v>
       </c>
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B24" t="s">
         <v>441</v>
       </c>
       <c r="C24" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D24" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="B25" t="s">
         <v>549</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>550</v>
-      </c>
-      <c r="C25" t="s">
-        <v>551</v>
       </c>
       <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="B26" t="s">
         <v>552</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>553</v>
-      </c>
-      <c r="C26" t="s">
-        <v>554</v>
       </c>
       <c r="E26" s="6"/>
     </row>
@@ -9689,23 +9683,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="e272a2e4-4bdf-4402-86c1-14e941d15658" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100EB04A42EC1A26F4FBB63D166FC5B970D" ma:contentTypeVersion="18" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="239dad6c5680f2618a3beaced7d7cca6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e272a2e4-4bdf-4402-86c1-14e941d15658" xmlns:ns4="d4db9376-2a30-4459-9193-cfeb797d1955" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5ecfe34017f2e154931bc78fb9fcd0a2" ns3:_="" ns4:_="">
     <xsd:import namespace="e272a2e4-4bdf-4402-86c1-14e941d15658"/>
@@ -9958,10 +9935,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="e272a2e4-4bdf-4402-86c1-14e941d15658" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67B5AAE4-66A7-4C08-B099-49C1C4975ADD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89FDF4BC-CCAE-4FF5-92C8-A45E4D33E3D1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e272a2e4-4bdf-4402-86c1-14e941d15658"/>
+    <ds:schemaRef ds:uri="d4db9376-2a30-4459-9193-cfeb797d1955"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9984,20 +9989,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89FDF4BC-CCAE-4FF5-92C8-A45E4D33E3D1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67B5AAE4-66A7-4C08-B099-49C1C4975ADD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e272a2e4-4bdf-4402-86c1-14e941d15658"/>
-    <ds:schemaRef ds:uri="d4db9376-2a30-4459-9193-cfeb797d1955"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>